--- a/banco-de-dados/docs/4-tabelas-permissoes/tabelas-de-permissoes-v001.xlsx
+++ b/banco-de-dados/docs/4-tabelas-permissoes/tabelas-de-permissoes-v001.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gsouza\Desktop\repositorios\TG_Fatec\banco-de-dados\docs\4-tabelas-permissoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BFB830-7E24-4B90-A8D3-815BEC54AA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E8B0B0-DF11-4630-B181-C45AF14C4B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-storage" sheetId="6" r:id="rId1"/>
     <sheet name="2-auth" sheetId="4" r:id="rId2"/>
     <sheet name="3-accessibility" sheetId="5" r:id="rId3"/>
-    <sheet name="permissoes" sheetId="1" r:id="rId4"/>
-    <sheet name="observacoes" sheetId="3" r:id="rId5"/>
+    <sheet name="4-notification" sheetId="7" r:id="rId4"/>
+    <sheet name="permissoes" sheetId="1" r:id="rId5"/>
+    <sheet name="observacoes" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -106,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="175">
   <si>
     <t>TB_FAVORITE</t>
   </si>
@@ -420,12 +421,6 @@
   </si>
   <si>
     <t xml:space="preserve">    s_storage_t_tb_arquivo_c_foto</t>
-  </si>
-  <si>
-    <t>ROLE_ANONIMO</t>
-  </si>
-  <si>
-    <t>ROLE_USUARIO</t>
   </si>
   <si>
     <t>TB_USUARIO</t>
@@ -564,12 +559,96 @@
   <si>
     <t xml:space="preserve">    tamanho_em_bytes</t>
   </si>
+  <si>
+    <t>R_ANONIMO</t>
+  </si>
+  <si>
+    <t>R_USUARIO</t>
+  </si>
+  <si>
+    <t>TB_TIPO</t>
+  </si>
+  <si>
+    <t>COLUNAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    s_storage_t_tb_arquivo_c_icone</t>
+  </si>
+  <si>
+    <t>TB_NOTIFICACAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    s_auth_t_tb_usuario_c_notificador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    descricao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    was_readed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tip_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    s_auth_t_tb_usuario_c_notificado</t>
+  </si>
+  <si>
+    <t>TB_TIPO_POR_USUARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    s_auth_t_tb_usuario_c_lev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    is_disabled</t>
+  </si>
+  <si>
+    <t>TB_COR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cor_led</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ativar_notificacoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    mostrar_em_tela_bloqueio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    nao_perturbar_horario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    nao_perturbar_horario_dias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    horario_inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    horario_fim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    fuso_horario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    nao_perturbar_dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    nao_perturbar_dia_dias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cor_pop_up</t>
+  </si>
+  <si>
+    <t>TB_CONFIGURACAO_POR_USUARIO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,6 +695,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -625,7 +711,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -1364,11 +1450,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1580,9 +1843,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1596,18 +1907,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1628,42 +1927,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1683,6 +1946,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1709,86 +2008,123 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2166,8 +2502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389BC5E2-BDE7-4BFE-977F-0CE47403253E}">
   <dimension ref="B3:J245"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2177,34 +2513,34 @@
   <sheetData>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="92"/>
+      <c r="B4" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
     </row>
     <row r="5" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="93"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="95"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="90"/>
+      <c r="B6" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="75"/>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="78"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="18" t="s">
         <v>6</v>
       </c>
@@ -2222,141 +2558,141 @@
       <c r="B8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="96" t="s">
-        <v>147</v>
+      <c r="C8" s="85" t="s">
+        <v>145</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="28"/>
-      <c r="F8" s="87"/>
+      <c r="F8" s="82"/>
     </row>
     <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="97"/>
+      <c r="C9" s="86"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="88"/>
+      <c r="F9" s="83"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="97"/>
+      <c r="C10" s="86"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="88"/>
+      <c r="F10" s="83"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="97"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="66"/>
       <c r="E11" s="66"/>
-      <c r="F11" s="88"/>
+      <c r="F11" s="83"/>
     </row>
     <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="97"/>
+      <c r="C12" s="86"/>
       <c r="D12" s="66" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="66"/>
-      <c r="F12" s="88"/>
+      <c r="F12" s="83"/>
     </row>
     <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="97"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="66" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="66"/>
-      <c r="F13" s="88"/>
+      <c r="F13" s="83"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="97"/>
+        <v>137</v>
+      </c>
+      <c r="C14" s="86"/>
       <c r="D14" s="66" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="66"/>
-      <c r="F14" s="88"/>
+      <c r="F14" s="83"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="97"/>
+        <v>136</v>
+      </c>
+      <c r="C15" s="86"/>
       <c r="D15" s="66" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="66"/>
-      <c r="F15" s="88"/>
+      <c r="F15" s="83"/>
     </row>
     <row r="16" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="98"/>
+        <v>135</v>
+      </c>
+      <c r="C16" s="87"/>
       <c r="D16" s="45" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="45"/>
-      <c r="F16" s="89"/>
+      <c r="F16" s="84"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="73"/>
+      <c r="B20" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="89"/>
     </row>
     <row r="21" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="74"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="76"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="92"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="79" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="77" t="s">
-        <v>141</v>
-      </c>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="83"/>
+      <c r="B22" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="95"/>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="78"/>
+      <c r="B23" s="72"/>
       <c r="C23" s="18" t="s">
         <v>6</v>
       </c>
@@ -2387,19 +2723,19 @@
         <v>10</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
-      <c r="F24" s="87"/>
+      <c r="F24" s="82"/>
       <c r="G24" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H24" s="62" t="s">
         <v>11</v>
       </c>
       <c r="I24" s="62"/>
-      <c r="J24" s="84"/>
+      <c r="J24" s="96"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
@@ -2410,7 +2746,7 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="88"/>
+      <c r="F25" s="83"/>
       <c r="G25" s="8" t="s">
         <v>22</v>
       </c>
@@ -2418,7 +2754,7 @@
         <v>11</v>
       </c>
       <c r="I25" s="64"/>
-      <c r="J25" s="85"/>
+      <c r="J25" s="97"/>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
@@ -2429,7 +2765,7 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="88"/>
+      <c r="F26" s="83"/>
       <c r="G26" s="8" t="s">
         <v>22</v>
       </c>
@@ -2439,18 +2775,18 @@
       <c r="I26" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="85"/>
+      <c r="J26" s="97"/>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C27" s="65" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="66"/>
       <c r="E27" s="66"/>
-      <c r="F27" s="88"/>
+      <c r="F27" s="83"/>
       <c r="G27" s="65" t="s">
         <v>11</v>
       </c>
@@ -2458,18 +2794,18 @@
         <v>11</v>
       </c>
       <c r="I27" s="66"/>
-      <c r="J27" s="85"/>
+      <c r="J27" s="97"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C28" s="65" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="66"/>
       <c r="E28" s="66"/>
-      <c r="F28" s="88"/>
+      <c r="F28" s="83"/>
       <c r="G28" s="65" t="s">
         <v>22</v>
       </c>
@@ -2479,7 +2815,7 @@
       <c r="I28" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="85"/>
+      <c r="J28" s="97"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
@@ -2490,7 +2826,7 @@
       </c>
       <c r="D29" s="66"/>
       <c r="E29" s="66"/>
-      <c r="F29" s="88"/>
+      <c r="F29" s="83"/>
       <c r="G29" s="65" t="s">
         <v>22</v>
       </c>
@@ -2500,7 +2836,7 @@
       <c r="I29" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="85"/>
+      <c r="J29" s="97"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
@@ -2511,7 +2847,7 @@
       </c>
       <c r="D30" s="66"/>
       <c r="E30" s="66"/>
-      <c r="F30" s="88"/>
+      <c r="F30" s="83"/>
       <c r="G30" s="65" t="s">
         <v>11</v>
       </c>
@@ -2519,35 +2855,35 @@
         <v>11</v>
       </c>
       <c r="I30" s="66"/>
-      <c r="J30" s="85"/>
+      <c r="J30" s="97"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C31" s="65" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="66"/>
       <c r="E31" s="66"/>
-      <c r="F31" s="88"/>
+      <c r="F31" s="83"/>
       <c r="G31" s="65" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="66"/>
       <c r="I31" s="66"/>
-      <c r="J31" s="85"/>
+      <c r="J31" s="97"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C32" s="65" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="66"/>
       <c r="E32" s="66"/>
-      <c r="F32" s="88"/>
+      <c r="F32" s="83"/>
       <c r="G32" s="65" t="s">
         <v>11</v>
       </c>
@@ -2555,18 +2891,18 @@
         <v>11</v>
       </c>
       <c r="I32" s="66"/>
-      <c r="J32" s="85"/>
+      <c r="J32" s="97"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C33" s="69" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="70"/>
       <c r="E33" s="70"/>
-      <c r="F33" s="88"/>
+      <c r="F33" s="83"/>
       <c r="G33" s="69" t="s">
         <v>11</v>
       </c>
@@ -2574,18 +2910,18 @@
         <v>11</v>
       </c>
       <c r="I33" s="70"/>
-      <c r="J33" s="85"/>
+      <c r="J33" s="97"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C34" s="44" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="45"/>
       <c r="E34" s="45"/>
-      <c r="F34" s="89"/>
+      <c r="F34" s="84"/>
       <c r="G34" s="44" t="s">
         <v>11</v>
       </c>
@@ -2593,7 +2929,7 @@
         <v>11</v>
       </c>
       <c r="I34" s="45"/>
-      <c r="J34" s="86"/>
+      <c r="J34" s="98"/>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2645,17 +2981,17 @@
     <row r="245" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="B4:F5"/>
-    <mergeCell ref="F8:F16"/>
-    <mergeCell ref="C8:C16"/>
     <mergeCell ref="B20:J21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="J24:J34"/>
     <mergeCell ref="F24:F34"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="F8:F16"/>
+    <mergeCell ref="C8:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2666,8 +3002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CFD5EC-BE05-41AD-8BD3-9CD7478A622B}">
   <dimension ref="B3:J245"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B40"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2677,48 +3013,48 @@
   <sheetData>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="73"/>
+      <c r="B4" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="89"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="76"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="79" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="83"/>
+      <c r="B6" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="78"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="18" t="s">
         <v>6</v>
       </c>
@@ -2749,7 +3085,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>11</v>
@@ -3064,48 +3400,48 @@
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="73"/>
+      <c r="B28" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="89"/>
     </row>
     <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="74"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="76"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="92"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="79" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="83"/>
+      <c r="B30" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="95"/>
     </row>
     <row r="31" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="78"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="18" t="s">
         <v>6</v>
       </c>
@@ -3136,17 +3472,17 @@
         <v>10</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
-      <c r="F32" s="87"/>
+      <c r="F32" s="82"/>
       <c r="G32" s="61"/>
       <c r="H32" s="62" t="s">
         <v>11</v>
       </c>
       <c r="I32" s="62"/>
-      <c r="J32" s="84"/>
+      <c r="J32" s="96"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
@@ -3157,24 +3493,24 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="88"/>
+      <c r="F33" s="83"/>
       <c r="G33" s="63"/>
       <c r="H33" s="64"/>
       <c r="I33" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="85"/>
+      <c r="J33" s="97"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="88"/>
+      <c r="F34" s="83"/>
       <c r="G34" s="63"/>
       <c r="H34" s="64" t="s">
         <v>11</v>
@@ -3182,18 +3518,18 @@
       <c r="I34" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="85"/>
+      <c r="J34" s="97"/>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C35" s="65" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="66"/>
       <c r="E35" s="66"/>
-      <c r="F35" s="88"/>
+      <c r="F35" s="83"/>
       <c r="G35" s="65"/>
       <c r="H35" s="66" t="s">
         <v>11</v>
@@ -3201,18 +3537,18 @@
       <c r="I35" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J35" s="85"/>
+      <c r="J35" s="97"/>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C36" s="65" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="66"/>
       <c r="E36" s="66"/>
-      <c r="F36" s="88"/>
+      <c r="F36" s="83"/>
       <c r="G36" s="65"/>
       <c r="H36" s="66" t="s">
         <v>11</v>
@@ -3220,18 +3556,18 @@
       <c r="I36" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J36" s="85"/>
+      <c r="J36" s="97"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C37" s="65" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="66"/>
       <c r="E37" s="66"/>
-      <c r="F37" s="88"/>
+      <c r="F37" s="83"/>
       <c r="G37" s="65"/>
       <c r="H37" s="66" t="s">
         <v>11</v>
@@ -3239,18 +3575,18 @@
       <c r="I37" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J37" s="85"/>
+      <c r="J37" s="97"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C38" s="65" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="66"/>
       <c r="E38" s="66"/>
-      <c r="F38" s="88"/>
+      <c r="F38" s="83"/>
       <c r="G38" s="65"/>
       <c r="H38" s="66" t="s">
         <v>11</v>
@@ -3258,18 +3594,18 @@
       <c r="I38" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J38" s="85"/>
+      <c r="J38" s="97"/>
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C39" s="65" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="66"/>
       <c r="E39" s="66"/>
-      <c r="F39" s="88"/>
+      <c r="F39" s="83"/>
       <c r="G39" s="65"/>
       <c r="H39" s="66" t="s">
         <v>11</v>
@@ -3277,18 +3613,18 @@
       <c r="I39" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J39" s="85"/>
+      <c r="J39" s="97"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C40" s="44" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="45"/>
       <c r="E40" s="45"/>
-      <c r="F40" s="89"/>
+      <c r="F40" s="84"/>
       <c r="G40" s="44"/>
       <c r="H40" s="45" t="s">
         <v>11</v>
@@ -3296,7 +3632,7 @@
       <c r="I40" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="J40" s="86"/>
+      <c r="J40" s="98"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3366,8 +3702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0F6684-EB90-408C-9C63-20E1A9D76E54}">
   <dimension ref="B3:J245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3377,48 +3713,48 @@
   <sheetData>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="73"/>
+      <c r="B4" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="89"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="76"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="79" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="83"/>
+      <c r="B6" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="78"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="18" t="s">
         <v>6</v>
       </c>
@@ -3449,17 +3785,17 @@
         <v>10</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
-      <c r="F8" s="87"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="61"/>
       <c r="H8" s="62" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="62"/>
-      <c r="J8" s="84"/>
+      <c r="J8" s="96"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
@@ -3470,7 +3806,7 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="88"/>
+      <c r="F9" s="83"/>
       <c r="G9" s="63"/>
       <c r="H9" s="64" t="s">
         <v>11</v>
@@ -3478,18 +3814,18 @@
       <c r="I9" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="85"/>
+      <c r="J9" s="97"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="88"/>
+      <c r="F10" s="83"/>
       <c r="G10" s="63"/>
       <c r="H10" s="64" t="s">
         <v>11</v>
@@ -3497,18 +3833,18 @@
       <c r="I10" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="85"/>
+      <c r="J10" s="97"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" s="65" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="66"/>
       <c r="E11" s="66"/>
-      <c r="F11" s="88"/>
+      <c r="F11" s="83"/>
       <c r="G11" s="65"/>
       <c r="H11" s="66" t="s">
         <v>11</v>
@@ -3516,18 +3852,18 @@
       <c r="I11" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="85"/>
+      <c r="J11" s="97"/>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" s="44" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45"/>
-      <c r="F12" s="89"/>
+      <c r="F12" s="84"/>
       <c r="G12" s="44"/>
       <c r="H12" s="45" t="s">
         <v>11</v>
@@ -3535,53 +3871,53 @@
       <c r="I12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="86"/>
+      <c r="J12" s="98"/>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="73"/>
+      <c r="B16" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="89"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="74"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="76"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="92"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="79" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="83"/>
+      <c r="B18" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="95"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="78"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="18" t="s">
         <v>6</v>
       </c>
@@ -3612,17 +3948,17 @@
         <v>10</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
-      <c r="F20" s="87"/>
+      <c r="F20" s="82"/>
       <c r="G20" s="61"/>
       <c r="H20" s="62" t="s">
         <v>11</v>
       </c>
       <c r="I20" s="62"/>
-      <c r="J20" s="84"/>
+      <c r="J20" s="96"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
@@ -3633,7 +3969,7 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="88"/>
+      <c r="F21" s="83"/>
       <c r="G21" s="63"/>
       <c r="H21" s="64" t="s">
         <v>11</v>
@@ -3641,18 +3977,18 @@
       <c r="I21" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="85"/>
+      <c r="J21" s="97"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="88"/>
+      <c r="F22" s="83"/>
       <c r="G22" s="63"/>
       <c r="H22" s="64" t="s">
         <v>11</v>
@@ -3660,18 +3996,18 @@
       <c r="I22" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="85"/>
+      <c r="J22" s="97"/>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C23" s="65" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="66"/>
       <c r="E23" s="66"/>
-      <c r="F23" s="88"/>
+      <c r="F23" s="83"/>
       <c r="G23" s="65"/>
       <c r="H23" s="66" t="s">
         <v>11</v>
@@ -3679,18 +4015,18 @@
       <c r="I23" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="85"/>
+      <c r="J23" s="97"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="88"/>
+      <c r="F24" s="83"/>
       <c r="G24" s="63"/>
       <c r="H24" s="64" t="s">
         <v>11</v>
@@ -3698,18 +4034,18 @@
       <c r="I24" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="85"/>
+      <c r="J24" s="97"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C25" s="65" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="66"/>
       <c r="E25" s="66"/>
-      <c r="F25" s="88"/>
+      <c r="F25" s="83"/>
       <c r="G25" s="65"/>
       <c r="H25" s="66" t="s">
         <v>11</v>
@@ -3717,18 +4053,18 @@
       <c r="I25" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="85"/>
+      <c r="J25" s="97"/>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C26" s="44" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="45"/>
       <c r="E26" s="45"/>
-      <c r="F26" s="89"/>
+      <c r="F26" s="84"/>
       <c r="G26" s="44"/>
       <c r="H26" s="45" t="s">
         <v>11</v>
@@ -3736,53 +4072,53 @@
       <c r="I26" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="86"/>
+      <c r="J26" s="98"/>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="71" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="73"/>
+      <c r="B30" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="89"/>
     </row>
     <row r="31" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="74"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="76"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="92"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="79" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="83"/>
+      <c r="B32" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="95"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="78"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="18" t="s">
         <v>6</v>
       </c>
@@ -3813,17 +4149,17 @@
         <v>10</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
-      <c r="F34" s="87"/>
+      <c r="F34" s="82"/>
       <c r="G34" s="61"/>
       <c r="H34" s="62" t="s">
         <v>11</v>
       </c>
       <c r="I34" s="62"/>
-      <c r="J34" s="84"/>
+      <c r="J34" s="96"/>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
@@ -3834,7 +4170,7 @@
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="88"/>
+      <c r="F35" s="83"/>
       <c r="G35" s="63"/>
       <c r="H35" s="64" t="s">
         <v>11</v>
@@ -3842,18 +4178,18 @@
       <c r="I35" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="J35" s="85"/>
+      <c r="J35" s="97"/>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="88"/>
+      <c r="F36" s="83"/>
       <c r="G36" s="63"/>
       <c r="H36" s="64" t="s">
         <v>11</v>
@@ -3861,18 +4197,18 @@
       <c r="I36" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="J36" s="85"/>
+      <c r="J36" s="97"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C37" s="65" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="66"/>
       <c r="E37" s="66"/>
-      <c r="F37" s="88"/>
+      <c r="F37" s="83"/>
       <c r="G37" s="65"/>
       <c r="H37" s="66" t="s">
         <v>11</v>
@@ -3880,18 +4216,18 @@
       <c r="I37" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J37" s="85"/>
+      <c r="J37" s="97"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="88"/>
+      <c r="F38" s="83"/>
       <c r="G38" s="63"/>
       <c r="H38" s="64" t="s">
         <v>11</v>
@@ -3899,18 +4235,18 @@
       <c r="I38" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="J38" s="85"/>
+      <c r="J38" s="97"/>
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C39" s="65" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="66"/>
       <c r="E39" s="66"/>
-      <c r="F39" s="88"/>
+      <c r="F39" s="83"/>
       <c r="G39" s="65"/>
       <c r="H39" s="66" t="s">
         <v>11</v>
@@ -3918,18 +4254,18 @@
       <c r="I39" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J39" s="85"/>
+      <c r="J39" s="97"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="88"/>
+      <c r="F40" s="83"/>
       <c r="G40" s="63"/>
       <c r="H40" s="64" t="s">
         <v>11</v>
@@ -3937,18 +4273,18 @@
       <c r="I40" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="J40" s="85"/>
+      <c r="J40" s="97"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="88"/>
+      <c r="F41" s="83"/>
       <c r="G41" s="63"/>
       <c r="H41" s="64" t="s">
         <v>11</v>
@@ -3956,18 +4292,18 @@
       <c r="I41" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="J41" s="85"/>
+      <c r="J41" s="97"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C42" s="65" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="66"/>
       <c r="E42" s="66"/>
-      <c r="F42" s="88"/>
+      <c r="F42" s="83"/>
       <c r="G42" s="65"/>
       <c r="H42" s="66" t="s">
         <v>11</v>
@@ -3975,18 +4311,18 @@
       <c r="I42" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J42" s="85"/>
+      <c r="J42" s="97"/>
     </row>
     <row r="43" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
-      <c r="F43" s="89"/>
+      <c r="F43" s="84"/>
       <c r="G43" s="67"/>
       <c r="H43" s="68" t="s">
         <v>11</v>
@@ -3994,7 +4330,7 @@
       <c r="I43" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="J43" s="86"/>
+      <c r="J43" s="98"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4042,14 +4378,6 @@
     <row r="245" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B16:J17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B4:J5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="F8:F12"/>
     <mergeCell ref="F34:F43"/>
     <mergeCell ref="J34:J43"/>
     <mergeCell ref="C18:F18"/>
@@ -4060,6 +4388,14 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="G32:J32"/>
+    <mergeCell ref="B16:J17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B4:J5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="F8:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4067,6 +4403,771 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF00015-3388-4FE7-BF36-AB810A7ADABD}">
+  <dimension ref="B3:G75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63:F75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="79"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="95"/>
+    </row>
+    <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="72"/>
+      <c r="C7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="143" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="96"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="141"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="97"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="141"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="97"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="141"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="97"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="141"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="97"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="141"/>
+      <c r="D13" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="66"/>
+      <c r="F13" s="97"/>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="142"/>
+      <c r="D14" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="98"/>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="76" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="78"/>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="79"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="81"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="95"/>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="72"/>
+      <c r="C21" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="149" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="62"/>
+      <c r="F22" s="119"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="64"/>
+      <c r="F23" s="122"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="64"/>
+      <c r="F24" s="122"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="66"/>
+      <c r="F25" s="122"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="66"/>
+      <c r="F26" s="122"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="150" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="144" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="144"/>
+      <c r="F27" s="122"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="146" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="151" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="145" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="145"/>
+      <c r="F28" s="122"/>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="147" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="152" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="153" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="153"/>
+      <c r="F29" s="148"/>
+    </row>
+    <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="78"/>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="79"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="81"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="95"/>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="72"/>
+      <c r="C36" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="149" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="62"/>
+      <c r="F37" s="96"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="97"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="97"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="66"/>
+      <c r="F40" s="97"/>
+    </row>
+    <row r="41" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="45"/>
+      <c r="F41" s="98"/>
+    </row>
+    <row r="44" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="78"/>
+    </row>
+    <row r="46" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="79"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="81"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="95"/>
+    </row>
+    <row r="48" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="72"/>
+      <c r="C48" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="143" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="119"/>
+      <c r="G49" s="155"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="141"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="155"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="141"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="155"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="141"/>
+      <c r="D52" s="144"/>
+      <c r="E52" s="144"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="155"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="146" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="141"/>
+      <c r="D53" s="145" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="145"/>
+      <c r="F53" s="122"/>
+      <c r="G53" s="155"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="146" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="141"/>
+      <c r="D54" s="145" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="145"/>
+      <c r="F54" s="122"/>
+      <c r="G54" s="155"/>
+    </row>
+    <row r="55" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="154" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="142"/>
+      <c r="D55" s="153" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="153"/>
+      <c r="F55" s="148"/>
+      <c r="G55" s="155"/>
+    </row>
+    <row r="58" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="77"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="78"/>
+    </row>
+    <row r="60" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="79"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="81"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" s="94"/>
+      <c r="E61" s="94"/>
+      <c r="F61" s="95"/>
+    </row>
+    <row r="62" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="72"/>
+      <c r="C62" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="156" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="119"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="160" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="165" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="122"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="160" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" s="157" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="122"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="160" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" s="157" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="122"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="160" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" s="157" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="122"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="160" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" s="158" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="144" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="144" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="122"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="160" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" s="159" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="145" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="145" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="122"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="163" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" s="161" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="162" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="162" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="122"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="160" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="122"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="160" t="s">
+        <v>171</v>
+      </c>
+      <c r="C72" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="122"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="160" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="122"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="160" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="122"/>
+    </row>
+    <row r="75" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="164" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="125"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="F63:F75"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="F49:F55"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="B59:F60"/>
+    <mergeCell ref="B33:F34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="B45:F46"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="F22:F29"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="F8:F14"/>
+    <mergeCell ref="C8:C14"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B6:R251"/>
   <sheetViews>
@@ -4081,76 +5182,76 @@
   <sheetData>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="130"/>
-      <c r="M8" s="130"/>
-      <c r="N8" s="130"/>
-      <c r="O8" s="130"/>
-      <c r="P8" s="130"/>
-      <c r="Q8" s="130"/>
-      <c r="R8" s="131"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="128"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="128"/>
+      <c r="P8" s="128"/>
+      <c r="Q8" s="128"/>
+      <c r="R8" s="129"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="132"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="133"/>
-      <c r="N9" s="133"/>
-      <c r="O9" s="133"/>
-      <c r="P9" s="133"/>
-      <c r="Q9" s="133"/>
-      <c r="R9" s="134"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="131"/>
+      <c r="M9" s="131"/>
+      <c r="N9" s="131"/>
+      <c r="O9" s="131"/>
+      <c r="P9" s="131"/>
+      <c r="Q9" s="131"/>
+      <c r="R9" s="132"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="79" t="s">
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="127" t="s">
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="79" t="s">
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="90"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="75"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="78"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="18" t="s">
         <v>6</v>
       </c>
@@ -4209,27 +5310,27 @@
         <v>11</v>
       </c>
       <c r="E12" s="10"/>
-      <c r="F12" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="105" t="s">
+      <c r="F12" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="105" t="s">
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="119" t="s">
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="P12" s="120"/>
-      <c r="Q12" s="120"/>
-      <c r="R12" s="121"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="107"/>
     </row>
     <row r="13" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
@@ -4242,19 +5343,19 @@
         <v>11</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="118"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="110"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
@@ -4267,92 +5368,92 @@
         <v>11</v>
       </c>
       <c r="E14" s="15"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="124"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="125"/>
-      <c r="R14" s="126"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="113"/>
     </row>
     <row r="16" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="129" t="s">
+      <c r="B19" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="130"/>
-      <c r="M19" s="130"/>
-      <c r="N19" s="130"/>
-      <c r="O19" s="130"/>
-      <c r="P19" s="130"/>
-      <c r="Q19" s="130"/>
-      <c r="R19" s="131"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="128"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="129"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="132"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="133"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="133"/>
-      <c r="M20" s="133"/>
-      <c r="N20" s="133"/>
-      <c r="O20" s="133"/>
-      <c r="P20" s="133"/>
-      <c r="Q20" s="133"/>
-      <c r="R20" s="134"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="131"/>
+      <c r="M20" s="131"/>
+      <c r="N20" s="131"/>
+      <c r="O20" s="131"/>
+      <c r="P20" s="131"/>
+      <c r="Q20" s="131"/>
+      <c r="R20" s="132"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="79" t="s">
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="127" t="s">
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="81"/>
-      <c r="O21" s="79" t="s">
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="90"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="75"/>
     </row>
     <row r="22" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="78"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="18" t="s">
         <v>6</v>
       </c>
@@ -4411,25 +5512,25 @@
         <v>11</v>
       </c>
       <c r="E23" s="10"/>
-      <c r="F23" s="114"/>
+      <c r="F23" s="137"/>
       <c r="G23" s="30"/>
       <c r="H23" s="28" t="s">
         <v>11</v>
       </c>
       <c r="I23" s="60"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="117" t="s">
+      <c r="J23" s="137"/>
+      <c r="K23" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="117" t="s">
+      <c r="L23" s="140"/>
+      <c r="M23" s="140"/>
+      <c r="N23" s="140"/>
+      <c r="O23" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="P23" s="117"/>
-      <c r="Q23" s="117"/>
-      <c r="R23" s="117"/>
+      <c r="P23" s="140"/>
+      <c r="Q23" s="140"/>
+      <c r="R23" s="140"/>
     </row>
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
@@ -4442,21 +5543,21 @@
         <v>11</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="115"/>
+      <c r="F24" s="136"/>
       <c r="G24" s="8"/>
       <c r="H24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I24" s="5"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="117"/>
-      <c r="N24" s="117"/>
-      <c r="O24" s="117"/>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="117"/>
-      <c r="R24" s="117"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="140"/>
+      <c r="L24" s="140"/>
+      <c r="M24" s="140"/>
+      <c r="N24" s="140"/>
+      <c r="O24" s="140"/>
+      <c r="P24" s="140"/>
+      <c r="Q24" s="140"/>
+      <c r="R24" s="140"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
@@ -4467,19 +5568,19 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="115"/>
+      <c r="F25" s="136"/>
       <c r="G25" s="8"/>
       <c r="H25" s="1"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="117"/>
-      <c r="N25" s="117"/>
-      <c r="O25" s="117"/>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="117"/>
-      <c r="R25" s="117"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="140"/>
+      <c r="L25" s="140"/>
+      <c r="M25" s="140"/>
+      <c r="N25" s="140"/>
+      <c r="O25" s="140"/>
+      <c r="P25" s="140"/>
+      <c r="Q25" s="140"/>
+      <c r="R25" s="140"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
@@ -4494,21 +5595,21 @@
       <c r="E26" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="115"/>
+      <c r="F26" s="136"/>
       <c r="G26" s="8"/>
       <c r="H26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I26" s="5"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="117"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="117"/>
-      <c r="N26" s="117"/>
-      <c r="O26" s="117"/>
-      <c r="P26" s="117"/>
-      <c r="Q26" s="117"/>
-      <c r="R26" s="117"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="140"/>
+      <c r="L26" s="140"/>
+      <c r="M26" s="140"/>
+      <c r="N26" s="140"/>
+      <c r="O26" s="140"/>
+      <c r="P26" s="140"/>
+      <c r="Q26" s="140"/>
+      <c r="R26" s="140"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
@@ -4521,93 +5622,93 @@
         <v>11</v>
       </c>
       <c r="E27" s="15"/>
-      <c r="F27" s="116"/>
+      <c r="F27" s="138"/>
       <c r="G27" s="13"/>
       <c r="H27" s="14" t="s">
         <v>11</v>
       </c>
       <c r="I27" s="15"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="117"/>
-      <c r="L27" s="117"/>
-      <c r="M27" s="117"/>
-      <c r="N27" s="117"/>
-      <c r="O27" s="117"/>
-      <c r="P27" s="117"/>
-      <c r="Q27" s="117"/>
-      <c r="R27" s="117"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="140"/>
+      <c r="L27" s="140"/>
+      <c r="M27" s="140"/>
+      <c r="N27" s="140"/>
+      <c r="O27" s="140"/>
+      <c r="P27" s="140"/>
+      <c r="Q27" s="140"/>
+      <c r="R27" s="140"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="128" t="s">
+      <c r="B31" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="73"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="89"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="74"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="75"/>
-      <c r="R32" s="76"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="91"/>
+      <c r="P32" s="91"/>
+      <c r="Q32" s="91"/>
+      <c r="R32" s="92"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="136" t="s">
+      <c r="B33" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="77" t="s">
+      <c r="C33" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="77" t="s">
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="77" t="s">
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="83"/>
-      <c r="O33" s="77" t="s">
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="P33" s="82"/>
-      <c r="Q33" s="82"/>
-      <c r="R33" s="83"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="95"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="137"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="25" t="s">
         <v>6</v>
       </c>
@@ -4664,23 +5765,23 @@
       <c r="C35" s="30"/>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="105" t="s">
+      <c r="F35" s="82"/>
+      <c r="G35" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="107"/>
-      <c r="K35" s="119" t="s">
+      <c r="H35" s="118"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="119"/>
+      <c r="K35" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="L35" s="120"/>
-      <c r="M35" s="120"/>
-      <c r="N35" s="121"/>
+      <c r="L35" s="106"/>
+      <c r="M35" s="106"/>
+      <c r="N35" s="107"/>
       <c r="O35" s="22"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
-      <c r="R35" s="87"/>
+      <c r="R35" s="82"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
@@ -4693,15 +5794,15 @@
         <v>11</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="109"/>
-      <c r="I36" s="109"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="122"/>
-      <c r="L36" s="123"/>
-      <c r="M36" s="123"/>
-      <c r="N36" s="118"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="122"/>
+      <c r="K36" s="108"/>
+      <c r="L36" s="109"/>
+      <c r="M36" s="109"/>
+      <c r="N36" s="110"/>
       <c r="O36" s="8" t="s">
         <v>11</v>
       </c>
@@ -4709,7 +5810,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="1"/>
-      <c r="R36" s="88"/>
+      <c r="R36" s="83"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
@@ -4722,15 +5823,15 @@
         <v>11</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="108"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="122"/>
-      <c r="L37" s="123"/>
-      <c r="M37" s="123"/>
-      <c r="N37" s="118"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="121"/>
+      <c r="J37" s="122"/>
+      <c r="K37" s="108"/>
+      <c r="L37" s="109"/>
+      <c r="M37" s="109"/>
+      <c r="N37" s="110"/>
       <c r="O37" s="8" t="s">
         <v>22</v>
       </c>
@@ -4738,7 +5839,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="1"/>
-      <c r="R37" s="88"/>
+      <c r="R37" s="83"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
@@ -4751,15 +5852,15 @@
         <v>11</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="108"/>
-      <c r="H38" s="109"/>
-      <c r="I38" s="109"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="122"/>
-      <c r="L38" s="123"/>
-      <c r="M38" s="123"/>
-      <c r="N38" s="118"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="122"/>
+      <c r="K38" s="108"/>
+      <c r="L38" s="109"/>
+      <c r="M38" s="109"/>
+      <c r="N38" s="110"/>
       <c r="O38" s="8" t="s">
         <v>11</v>
       </c>
@@ -4767,7 +5868,7 @@
         <v>11</v>
       </c>
       <c r="Q38" s="1"/>
-      <c r="R38" s="88"/>
+      <c r="R38" s="83"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
@@ -4780,15 +5881,15 @@
         <v>11</v>
       </c>
       <c r="E39" s="14"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="112"/>
-      <c r="I39" s="112"/>
-      <c r="J39" s="113"/>
-      <c r="K39" s="124"/>
-      <c r="L39" s="125"/>
-      <c r="M39" s="125"/>
-      <c r="N39" s="126"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="123"/>
+      <c r="H39" s="124"/>
+      <c r="I39" s="124"/>
+      <c r="J39" s="125"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="112"/>
+      <c r="M39" s="112"/>
+      <c r="N39" s="113"/>
       <c r="O39" s="13" t="s">
         <v>28</v>
       </c>
@@ -4796,80 +5897,80 @@
         <v>11</v>
       </c>
       <c r="Q39" s="14"/>
-      <c r="R39" s="89"/>
+      <c r="R39" s="84"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="128" t="s">
+      <c r="B42" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="72"/>
-      <c r="N42" s="72"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="72"/>
-      <c r="Q42" s="72"/>
-      <c r="R42" s="73"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="88"/>
+      <c r="O42" s="88"/>
+      <c r="P42" s="88"/>
+      <c r="Q42" s="88"/>
+      <c r="R42" s="89"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="74"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
-      <c r="N43" s="75"/>
-      <c r="O43" s="75"/>
-      <c r="P43" s="75"/>
-      <c r="Q43" s="75"/>
-      <c r="R43" s="76"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="91"/>
+      <c r="G43" s="91"/>
+      <c r="H43" s="91"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="91"/>
+      <c r="K43" s="91"/>
+      <c r="L43" s="91"/>
+      <c r="M43" s="91"/>
+      <c r="N43" s="91"/>
+      <c r="O43" s="91"/>
+      <c r="P43" s="91"/>
+      <c r="Q43" s="91"/>
+      <c r="R43" s="92"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="136" t="s">
+      <c r="B44" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="77" t="s">
+      <c r="C44" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="77" t="s">
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="82"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="77" t="s">
+      <c r="H44" s="94"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="82"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="83"/>
-      <c r="O44" s="77" t="s">
+      <c r="L44" s="94"/>
+      <c r="M44" s="94"/>
+      <c r="N44" s="95"/>
+      <c r="O44" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="P44" s="82"/>
-      <c r="Q44" s="82"/>
-      <c r="R44" s="83"/>
+      <c r="P44" s="94"/>
+      <c r="Q44" s="94"/>
+      <c r="R44" s="95"/>
     </row>
     <row r="45" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="137"/>
+      <c r="B45" s="116"/>
       <c r="C45" s="25" t="s">
         <v>6</v>
       </c>
@@ -4928,25 +6029,25 @@
         <v>11</v>
       </c>
       <c r="E46" s="28"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="105" t="s">
+      <c r="F46" s="82"/>
+      <c r="G46" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="106"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="107"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="119"/>
       <c r="K46" s="29"/>
       <c r="L46" s="28" t="s">
         <v>11</v>
       </c>
       <c r="M46" s="28"/>
-      <c r="N46" s="87"/>
+      <c r="N46" s="82"/>
       <c r="O46" s="29"/>
       <c r="P46" s="28" t="s">
         <v>11</v>
       </c>
       <c r="Q46" s="28"/>
-      <c r="R46" s="87"/>
+      <c r="R46" s="82"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="32" t="s">
@@ -4959,23 +6060,23 @@
         <v>11</v>
       </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="109"/>
-      <c r="J47" s="110"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="121"/>
+      <c r="I47" s="121"/>
+      <c r="J47" s="122"/>
       <c r="K47" s="6"/>
       <c r="L47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M47" s="1"/>
-      <c r="N47" s="88"/>
+      <c r="N47" s="83"/>
       <c r="O47" s="6" t="s">
         <v>11</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
-      <c r="R47" s="88"/>
+      <c r="R47" s="83"/>
     </row>
     <row r="48" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="32" t="s">
@@ -4988,23 +6089,23 @@
         <v>11</v>
       </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="108"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="109"/>
-      <c r="J48" s="110"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="120"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="121"/>
+      <c r="J48" s="122"/>
       <c r="K48" s="6"/>
       <c r="L48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M48" s="1"/>
-      <c r="N48" s="88"/>
+      <c r="N48" s="83"/>
       <c r="O48" s="6" t="s">
         <v>11</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
-      <c r="R48" s="88"/>
+      <c r="R48" s="83"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="11" t="s">
@@ -5017,23 +6118,23 @@
         <v>11</v>
       </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="109"/>
-      <c r="J49" s="110"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="120"/>
+      <c r="H49" s="121"/>
+      <c r="I49" s="121"/>
+      <c r="J49" s="122"/>
       <c r="K49" s="6"/>
       <c r="L49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M49" s="1"/>
-      <c r="N49" s="88"/>
+      <c r="N49" s="83"/>
       <c r="O49" s="6" t="s">
         <v>11</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
-      <c r="R49" s="88"/>
+      <c r="R49" s="83"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="11" t="s">
@@ -5046,17 +6147,17 @@
         <v>11</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="108"/>
-      <c r="H50" s="109"/>
-      <c r="I50" s="109"/>
-      <c r="J50" s="110"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="120"/>
+      <c r="H50" s="121"/>
+      <c r="I50" s="121"/>
+      <c r="J50" s="122"/>
       <c r="K50" s="6"/>
       <c r="L50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M50" s="1"/>
-      <c r="N50" s="88"/>
+      <c r="N50" s="83"/>
       <c r="O50" s="6" t="s">
         <v>11</v>
       </c>
@@ -5064,7 +6165,7 @@
         <v>11</v>
       </c>
       <c r="Q50" s="1"/>
-      <c r="R50" s="88"/>
+      <c r="R50" s="83"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="11" t="s">
@@ -5077,17 +6178,17 @@
         <v>11</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="88"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="109"/>
-      <c r="J51" s="110"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="120"/>
+      <c r="H51" s="121"/>
+      <c r="I51" s="121"/>
+      <c r="J51" s="122"/>
       <c r="K51" s="6"/>
       <c r="L51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M51" s="1"/>
-      <c r="N51" s="88"/>
+      <c r="N51" s="83"/>
       <c r="O51" s="6" t="s">
         <v>11</v>
       </c>
@@ -5095,7 +6196,7 @@
         <v>11</v>
       </c>
       <c r="Q51" s="1"/>
-      <c r="R51" s="88"/>
+      <c r="R51" s="83"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="11" t="s">
@@ -5108,17 +6209,17 @@
         <v>11</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="108"/>
-      <c r="H52" s="109"/>
-      <c r="I52" s="109"/>
-      <c r="J52" s="110"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="121"/>
+      <c r="I52" s="121"/>
+      <c r="J52" s="122"/>
       <c r="K52" s="6"/>
       <c r="L52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M52" s="1"/>
-      <c r="N52" s="88"/>
+      <c r="N52" s="83"/>
       <c r="O52" s="6" t="s">
         <v>11</v>
       </c>
@@ -5126,7 +6227,7 @@
         <v>11</v>
       </c>
       <c r="Q52" s="1"/>
-      <c r="R52" s="88"/>
+      <c r="R52" s="83"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="11" t="s">
@@ -5139,23 +6240,23 @@
         <v>11</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="108"/>
-      <c r="H53" s="109"/>
-      <c r="I53" s="109"/>
-      <c r="J53" s="110"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="121"/>
+      <c r="I53" s="121"/>
+      <c r="J53" s="122"/>
       <c r="K53" s="6"/>
       <c r="L53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M53" s="1"/>
-      <c r="N53" s="88"/>
+      <c r="N53" s="83"/>
       <c r="O53" s="6" t="s">
         <v>11</v>
       </c>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
-      <c r="R53" s="88"/>
+      <c r="R53" s="83"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
@@ -5170,17 +6271,17 @@
       <c r="E54" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="88"/>
-      <c r="G54" s="108"/>
-      <c r="H54" s="109"/>
-      <c r="I54" s="109"/>
-      <c r="J54" s="110"/>
+      <c r="F54" s="83"/>
+      <c r="G54" s="120"/>
+      <c r="H54" s="121"/>
+      <c r="I54" s="121"/>
+      <c r="J54" s="122"/>
       <c r="K54" s="6"/>
       <c r="L54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M54" s="1"/>
-      <c r="N54" s="88"/>
+      <c r="N54" s="83"/>
       <c r="O54" s="6" t="s">
         <v>16</v>
       </c>
@@ -5188,7 +6289,7 @@
         <v>11</v>
       </c>
       <c r="Q54" s="1"/>
-      <c r="R54" s="88"/>
+      <c r="R54" s="83"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
@@ -5201,23 +6302,23 @@
         <v>11</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="108"/>
-      <c r="H55" s="109"/>
-      <c r="I55" s="109"/>
-      <c r="J55" s="110"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="120"/>
+      <c r="H55" s="121"/>
+      <c r="I55" s="121"/>
+      <c r="J55" s="122"/>
       <c r="K55" s="6"/>
       <c r="L55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M55" s="1"/>
-      <c r="N55" s="88"/>
+      <c r="N55" s="83"/>
       <c r="O55" s="6" t="s">
         <v>22</v>
       </c>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
-      <c r="R55" s="88"/>
+      <c r="R55" s="83"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56" s="11" t="s">
@@ -5228,21 +6329,21 @@
       </c>
       <c r="D56" s="58"/>
       <c r="E56" s="59"/>
-      <c r="F56" s="88"/>
-      <c r="G56" s="108"/>
-      <c r="H56" s="109"/>
-      <c r="I56" s="109"/>
-      <c r="J56" s="110"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="120"/>
+      <c r="H56" s="121"/>
+      <c r="I56" s="121"/>
+      <c r="J56" s="122"/>
       <c r="K56" s="53"/>
       <c r="L56" s="58"/>
       <c r="M56" s="59"/>
-      <c r="N56" s="88"/>
+      <c r="N56" s="83"/>
       <c r="O56" s="53" t="s">
         <v>28</v>
       </c>
       <c r="P56" s="58"/>
       <c r="Q56" s="59"/>
-      <c r="R56" s="88"/>
+      <c r="R56" s="83"/>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
@@ -5257,23 +6358,23 @@
       <c r="E57" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F57" s="88"/>
-      <c r="G57" s="108"/>
-      <c r="H57" s="109"/>
-      <c r="I57" s="109"/>
-      <c r="J57" s="110"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="120"/>
+      <c r="H57" s="121"/>
+      <c r="I57" s="121"/>
+      <c r="J57" s="122"/>
       <c r="K57" s="6"/>
       <c r="L57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M57" s="1"/>
-      <c r="N57" s="88"/>
+      <c r="N57" s="83"/>
       <c r="O57" s="6" t="s">
         <v>28</v>
       </c>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
-      <c r="R57" s="88"/>
+      <c r="R57" s="83"/>
     </row>
     <row r="58" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="11" t="s">
@@ -5286,15 +6387,15 @@
         <v>11</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="88"/>
-      <c r="G58" s="108"/>
-      <c r="H58" s="109"/>
-      <c r="I58" s="109"/>
-      <c r="J58" s="110"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="120"/>
+      <c r="H58" s="121"/>
+      <c r="I58" s="121"/>
+      <c r="J58" s="122"/>
       <c r="K58" s="6"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
-      <c r="N58" s="88"/>
+      <c r="N58" s="83"/>
       <c r="O58" s="6" t="s">
         <v>22</v>
       </c>
@@ -5302,7 +6403,7 @@
         <v>11</v>
       </c>
       <c r="Q58" s="1"/>
-      <c r="R58" s="88"/>
+      <c r="R58" s="83"/>
     </row>
     <row r="59" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="11" t="s">
@@ -5313,21 +6414,21 @@
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="108"/>
-      <c r="H59" s="109"/>
-      <c r="I59" s="109"/>
-      <c r="J59" s="110"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="120"/>
+      <c r="H59" s="121"/>
+      <c r="I59" s="121"/>
+      <c r="J59" s="122"/>
       <c r="K59" s="6"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
-      <c r="N59" s="88"/>
+      <c r="N59" s="83"/>
       <c r="O59" s="6" t="s">
         <v>22</v>
       </c>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
-      <c r="R59" s="88"/>
+      <c r="R59" s="83"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="11" t="s">
@@ -5340,15 +6441,15 @@
         <v>11</v>
       </c>
       <c r="E60" s="1"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="108"/>
-      <c r="H60" s="109"/>
-      <c r="I60" s="109"/>
-      <c r="J60" s="110"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="120"/>
+      <c r="H60" s="121"/>
+      <c r="I60" s="121"/>
+      <c r="J60" s="122"/>
       <c r="K60" s="6"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
-      <c r="N60" s="88"/>
+      <c r="N60" s="83"/>
       <c r="O60" s="6" t="s">
         <v>11</v>
       </c>
@@ -5356,7 +6457,7 @@
         <v>11</v>
       </c>
       <c r="Q60" s="1"/>
-      <c r="R60" s="88"/>
+      <c r="R60" s="83"/>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" s="11" t="s">
@@ -5369,15 +6470,15 @@
         <v>11</v>
       </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="88"/>
-      <c r="G61" s="108"/>
-      <c r="H61" s="109"/>
-      <c r="I61" s="109"/>
-      <c r="J61" s="110"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="120"/>
+      <c r="H61" s="121"/>
+      <c r="I61" s="121"/>
+      <c r="J61" s="122"/>
       <c r="K61" s="6"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
-      <c r="N61" s="88"/>
+      <c r="N61" s="83"/>
       <c r="O61" s="6" t="s">
         <v>28</v>
       </c>
@@ -5385,7 +6486,7 @@
         <v>11</v>
       </c>
       <c r="Q61" s="1"/>
-      <c r="R61" s="88"/>
+      <c r="R61" s="83"/>
     </row>
     <row r="62" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
@@ -5400,15 +6501,15 @@
       <c r="E62" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="88"/>
-      <c r="G62" s="108"/>
-      <c r="H62" s="109"/>
-      <c r="I62" s="109"/>
-      <c r="J62" s="110"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="120"/>
+      <c r="H62" s="121"/>
+      <c r="I62" s="121"/>
+      <c r="J62" s="122"/>
       <c r="K62" s="6"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
-      <c r="N62" s="88"/>
+      <c r="N62" s="83"/>
       <c r="O62" s="6" t="s">
         <v>22</v>
       </c>
@@ -5416,7 +6517,7 @@
         <v>11</v>
       </c>
       <c r="Q62" s="1"/>
-      <c r="R62" s="88"/>
+      <c r="R62" s="83"/>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
@@ -5429,17 +6530,17 @@
         <v>11</v>
       </c>
       <c r="E63" s="14"/>
-      <c r="F63" s="89"/>
-      <c r="G63" s="111"/>
-      <c r="H63" s="112"/>
-      <c r="I63" s="112"/>
-      <c r="J63" s="113"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="123"/>
+      <c r="H63" s="124"/>
+      <c r="I63" s="124"/>
+      <c r="J63" s="125"/>
       <c r="K63" s="16"/>
       <c r="L63" s="14" t="s">
         <v>11</v>
       </c>
       <c r="M63" s="14"/>
-      <c r="N63" s="89"/>
+      <c r="N63" s="84"/>
       <c r="O63" s="16" t="s">
         <v>11</v>
       </c>
@@ -5447,79 +6548,79 @@
         <v>11</v>
       </c>
       <c r="Q63" s="14"/>
-      <c r="R63" s="89"/>
+      <c r="R63" s="84"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B67" s="128" t="s">
+      <c r="B67" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="72"/>
-      <c r="I67" s="72"/>
-      <c r="J67" s="72"/>
-      <c r="K67" s="72"/>
-      <c r="L67" s="72"/>
-      <c r="M67" s="72"/>
-      <c r="N67" s="72"/>
-      <c r="O67" s="72"/>
-      <c r="P67" s="72"/>
-      <c r="Q67" s="72"/>
-      <c r="R67" s="73"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="88"/>
+      <c r="E67" s="88"/>
+      <c r="F67" s="88"/>
+      <c r="G67" s="88"/>
+      <c r="H67" s="88"/>
+      <c r="I67" s="88"/>
+      <c r="J67" s="88"/>
+      <c r="K67" s="88"/>
+      <c r="L67" s="88"/>
+      <c r="M67" s="88"/>
+      <c r="N67" s="88"/>
+      <c r="O67" s="88"/>
+      <c r="P67" s="88"/>
+      <c r="Q67" s="88"/>
+      <c r="R67" s="89"/>
     </row>
     <row r="68" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="74"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="75"/>
-      <c r="H68" s="75"/>
-      <c r="I68" s="75"/>
-      <c r="J68" s="75"/>
-      <c r="K68" s="75"/>
-      <c r="L68" s="75"/>
-      <c r="M68" s="75"/>
-      <c r="N68" s="75"/>
-      <c r="O68" s="75"/>
-      <c r="P68" s="75"/>
-      <c r="Q68" s="75"/>
-      <c r="R68" s="76"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="91"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="91"/>
+      <c r="G68" s="91"/>
+      <c r="H68" s="91"/>
+      <c r="I68" s="91"/>
+      <c r="J68" s="91"/>
+      <c r="K68" s="91"/>
+      <c r="L68" s="91"/>
+      <c r="M68" s="91"/>
+      <c r="N68" s="91"/>
+      <c r="O68" s="91"/>
+      <c r="P68" s="91"/>
+      <c r="Q68" s="91"/>
+      <c r="R68" s="92"/>
     </row>
     <row r="69" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="136" t="s">
+      <c r="B69" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="77" t="s">
+      <c r="C69" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="82"/>
-      <c r="E69" s="82"/>
-      <c r="F69" s="83"/>
-      <c r="G69" s="77" t="s">
+      <c r="D69" s="94"/>
+      <c r="E69" s="94"/>
+      <c r="F69" s="95"/>
+      <c r="G69" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H69" s="82"/>
-      <c r="I69" s="82"/>
-      <c r="J69" s="83"/>
-      <c r="K69" s="77" t="s">
+      <c r="H69" s="94"/>
+      <c r="I69" s="94"/>
+      <c r="J69" s="95"/>
+      <c r="K69" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="L69" s="82"/>
-      <c r="M69" s="82"/>
-      <c r="N69" s="83"/>
-      <c r="O69" s="77" t="s">
+      <c r="L69" s="94"/>
+      <c r="M69" s="94"/>
+      <c r="N69" s="95"/>
+      <c r="O69" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="P69" s="82"/>
-      <c r="Q69" s="82"/>
-      <c r="R69" s="83"/>
+      <c r="P69" s="94"/>
+      <c r="Q69" s="94"/>
+      <c r="R69" s="95"/>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B70" s="137"/>
+      <c r="B70" s="116"/>
       <c r="C70" s="25" t="s">
         <v>6</v>
       </c>
@@ -5578,25 +6679,25 @@
         <v>11</v>
       </c>
       <c r="E71" s="28"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="105" t="s">
+      <c r="F71" s="82"/>
+      <c r="G71" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H71" s="106"/>
-      <c r="I71" s="106"/>
-      <c r="J71" s="107"/>
+      <c r="H71" s="118"/>
+      <c r="I71" s="118"/>
+      <c r="J71" s="119"/>
       <c r="K71" s="30"/>
       <c r="L71" s="28" t="s">
         <v>11</v>
       </c>
       <c r="M71" s="28"/>
-      <c r="N71" s="87"/>
-      <c r="O71" s="119" t="s">
+      <c r="N71" s="82"/>
+      <c r="O71" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="P71" s="120"/>
-      <c r="Q71" s="120"/>
-      <c r="R71" s="121"/>
+      <c r="P71" s="106"/>
+      <c r="Q71" s="106"/>
+      <c r="R71" s="107"/>
     </row>
     <row r="72" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="36" t="s">
@@ -5609,21 +6710,21 @@
         <v>11</v>
       </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="88"/>
-      <c r="G72" s="108"/>
-      <c r="H72" s="109"/>
-      <c r="I72" s="109"/>
-      <c r="J72" s="110"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="120"/>
+      <c r="H72" s="121"/>
+      <c r="I72" s="121"/>
+      <c r="J72" s="122"/>
       <c r="K72" s="8"/>
       <c r="L72" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M72" s="1"/>
-      <c r="N72" s="88"/>
-      <c r="O72" s="122"/>
-      <c r="P72" s="123"/>
-      <c r="Q72" s="123"/>
-      <c r="R72" s="118"/>
+      <c r="N72" s="83"/>
+      <c r="O72" s="108"/>
+      <c r="P72" s="109"/>
+      <c r="Q72" s="109"/>
+      <c r="R72" s="110"/>
     </row>
     <row r="73" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="37" t="s">
@@ -5636,93 +6737,93 @@
         <v>11</v>
       </c>
       <c r="E73" s="14"/>
-      <c r="F73" s="89"/>
-      <c r="G73" s="111"/>
-      <c r="H73" s="112"/>
-      <c r="I73" s="112"/>
-      <c r="J73" s="113"/>
+      <c r="F73" s="84"/>
+      <c r="G73" s="123"/>
+      <c r="H73" s="124"/>
+      <c r="I73" s="124"/>
+      <c r="J73" s="125"/>
       <c r="K73" s="13"/>
       <c r="L73" s="14" t="s">
         <v>11</v>
       </c>
       <c r="M73" s="14"/>
-      <c r="N73" s="89"/>
-      <c r="O73" s="124"/>
-      <c r="P73" s="125"/>
-      <c r="Q73" s="125"/>
-      <c r="R73" s="126"/>
+      <c r="N73" s="84"/>
+      <c r="O73" s="111"/>
+      <c r="P73" s="112"/>
+      <c r="Q73" s="112"/>
+      <c r="R73" s="113"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B78" s="128" t="s">
+      <c r="B78" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="72"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="72"/>
-      <c r="F78" s="72"/>
-      <c r="G78" s="72"/>
-      <c r="H78" s="72"/>
-      <c r="I78" s="72"/>
-      <c r="J78" s="72"/>
-      <c r="K78" s="72"/>
-      <c r="L78" s="72"/>
-      <c r="M78" s="72"/>
-      <c r="N78" s="72"/>
-      <c r="O78" s="72"/>
-      <c r="P78" s="72"/>
-      <c r="Q78" s="72"/>
-      <c r="R78" s="73"/>
+      <c r="C78" s="88"/>
+      <c r="D78" s="88"/>
+      <c r="E78" s="88"/>
+      <c r="F78" s="88"/>
+      <c r="G78" s="88"/>
+      <c r="H78" s="88"/>
+      <c r="I78" s="88"/>
+      <c r="J78" s="88"/>
+      <c r="K78" s="88"/>
+      <c r="L78" s="88"/>
+      <c r="M78" s="88"/>
+      <c r="N78" s="88"/>
+      <c r="O78" s="88"/>
+      <c r="P78" s="88"/>
+      <c r="Q78" s="88"/>
+      <c r="R78" s="89"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B79" s="74"/>
-      <c r="C79" s="75"/>
-      <c r="D79" s="75"/>
-      <c r="E79" s="75"/>
-      <c r="F79" s="75"/>
-      <c r="G79" s="75"/>
-      <c r="H79" s="75"/>
-      <c r="I79" s="75"/>
-      <c r="J79" s="75"/>
-      <c r="K79" s="75"/>
-      <c r="L79" s="75"/>
-      <c r="M79" s="75"/>
-      <c r="N79" s="75"/>
-      <c r="O79" s="75"/>
-      <c r="P79" s="75"/>
-      <c r="Q79" s="75"/>
-      <c r="R79" s="76"/>
+      <c r="B79" s="90"/>
+      <c r="C79" s="91"/>
+      <c r="D79" s="91"/>
+      <c r="E79" s="91"/>
+      <c r="F79" s="91"/>
+      <c r="G79" s="91"/>
+      <c r="H79" s="91"/>
+      <c r="I79" s="91"/>
+      <c r="J79" s="91"/>
+      <c r="K79" s="91"/>
+      <c r="L79" s="91"/>
+      <c r="M79" s="91"/>
+      <c r="N79" s="91"/>
+      <c r="O79" s="91"/>
+      <c r="P79" s="91"/>
+      <c r="Q79" s="91"/>
+      <c r="R79" s="92"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B80" s="139" t="s">
+      <c r="B80" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="C80" s="77" t="s">
+      <c r="C80" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D80" s="82"/>
-      <c r="E80" s="82"/>
-      <c r="F80" s="83"/>
-      <c r="G80" s="77" t="s">
+      <c r="D80" s="94"/>
+      <c r="E80" s="94"/>
+      <c r="F80" s="95"/>
+      <c r="G80" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H80" s="82"/>
-      <c r="I80" s="82"/>
-      <c r="J80" s="83"/>
-      <c r="K80" s="77" t="s">
+      <c r="H80" s="94"/>
+      <c r="I80" s="94"/>
+      <c r="J80" s="95"/>
+      <c r="K80" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="L80" s="82"/>
-      <c r="M80" s="82"/>
-      <c r="N80" s="83"/>
-      <c r="O80" s="77" t="s">
+      <c r="L80" s="94"/>
+      <c r="M80" s="94"/>
+      <c r="N80" s="95"/>
+      <c r="O80" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="P80" s="82"/>
-      <c r="Q80" s="82"/>
-      <c r="R80" s="83"/>
+      <c r="P80" s="94"/>
+      <c r="Q80" s="94"/>
+      <c r="R80" s="95"/>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B81" s="140"/>
+      <c r="B81" s="135"/>
       <c r="C81" s="27" t="s">
         <v>6</v>
       </c>
@@ -5781,25 +6882,25 @@
         <v>11</v>
       </c>
       <c r="E82" s="28"/>
-      <c r="F82" s="87"/>
-      <c r="G82" s="105" t="s">
+      <c r="F82" s="82"/>
+      <c r="G82" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H82" s="106"/>
-      <c r="I82" s="106"/>
-      <c r="J82" s="107"/>
+      <c r="H82" s="118"/>
+      <c r="I82" s="118"/>
+      <c r="J82" s="119"/>
       <c r="K82" s="29"/>
       <c r="L82" s="28" t="s">
         <v>11</v>
       </c>
       <c r="M82" s="28"/>
-      <c r="N82" s="87"/>
-      <c r="O82" s="119" t="s">
+      <c r="N82" s="82"/>
+      <c r="O82" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="P82" s="120"/>
-      <c r="Q82" s="120"/>
-      <c r="R82" s="121"/>
+      <c r="P82" s="106"/>
+      <c r="Q82" s="106"/>
+      <c r="R82" s="107"/>
     </row>
     <row r="83" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="32" t="s">
@@ -5812,21 +6913,21 @@
         <v>11</v>
       </c>
       <c r="E83" s="1"/>
-      <c r="F83" s="88"/>
-      <c r="G83" s="108"/>
-      <c r="H83" s="109"/>
-      <c r="I83" s="109"/>
-      <c r="J83" s="110"/>
+      <c r="F83" s="83"/>
+      <c r="G83" s="120"/>
+      <c r="H83" s="121"/>
+      <c r="I83" s="121"/>
+      <c r="J83" s="122"/>
       <c r="K83" s="6"/>
       <c r="L83" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M83" s="1"/>
-      <c r="N83" s="88"/>
-      <c r="O83" s="122"/>
-      <c r="P83" s="123"/>
-      <c r="Q83" s="123"/>
-      <c r="R83" s="118"/>
+      <c r="N83" s="83"/>
+      <c r="O83" s="108"/>
+      <c r="P83" s="109"/>
+      <c r="Q83" s="109"/>
+      <c r="R83" s="110"/>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B84" s="32" t="s">
@@ -5839,21 +6940,21 @@
         <v>11</v>
       </c>
       <c r="E84" s="1"/>
-      <c r="F84" s="88"/>
-      <c r="G84" s="108"/>
-      <c r="H84" s="109"/>
-      <c r="I84" s="109"/>
-      <c r="J84" s="110"/>
+      <c r="F84" s="83"/>
+      <c r="G84" s="120"/>
+      <c r="H84" s="121"/>
+      <c r="I84" s="121"/>
+      <c r="J84" s="122"/>
       <c r="K84" s="6"/>
       <c r="L84" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M84" s="1"/>
-      <c r="N84" s="88"/>
-      <c r="O84" s="122"/>
-      <c r="P84" s="123"/>
-      <c r="Q84" s="123"/>
-      <c r="R84" s="118"/>
+      <c r="N84" s="83"/>
+      <c r="O84" s="108"/>
+      <c r="P84" s="109"/>
+      <c r="Q84" s="109"/>
+      <c r="R84" s="110"/>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B85" s="32" t="s">
@@ -5866,21 +6967,21 @@
         <v>11</v>
       </c>
       <c r="E85" s="40"/>
-      <c r="F85" s="88"/>
-      <c r="G85" s="108"/>
-      <c r="H85" s="109"/>
-      <c r="I85" s="109"/>
-      <c r="J85" s="110"/>
+      <c r="F85" s="83"/>
+      <c r="G85" s="120"/>
+      <c r="H85" s="121"/>
+      <c r="I85" s="121"/>
+      <c r="J85" s="122"/>
       <c r="K85" s="6"/>
       <c r="L85" s="40" t="s">
         <v>11</v>
       </c>
       <c r="M85" s="40"/>
-      <c r="N85" s="88"/>
-      <c r="O85" s="122"/>
-      <c r="P85" s="123"/>
-      <c r="Q85" s="123"/>
-      <c r="R85" s="118"/>
+      <c r="N85" s="83"/>
+      <c r="O85" s="108"/>
+      <c r="P85" s="109"/>
+      <c r="Q85" s="109"/>
+      <c r="R85" s="110"/>
     </row>
     <row r="86" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="32" t="s">
@@ -5895,21 +6996,21 @@
       <c r="E86" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="118"/>
-      <c r="G86" s="108"/>
-      <c r="H86" s="109"/>
-      <c r="I86" s="109"/>
-      <c r="J86" s="110"/>
+      <c r="F86" s="110"/>
+      <c r="G86" s="120"/>
+      <c r="H86" s="121"/>
+      <c r="I86" s="121"/>
+      <c r="J86" s="122"/>
       <c r="K86" s="57"/>
       <c r="L86" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M86" s="1"/>
-      <c r="N86" s="118"/>
-      <c r="O86" s="122"/>
-      <c r="P86" s="123"/>
-      <c r="Q86" s="123"/>
-      <c r="R86" s="118"/>
+      <c r="N86" s="110"/>
+      <c r="O86" s="108"/>
+      <c r="P86" s="109"/>
+      <c r="Q86" s="109"/>
+      <c r="R86" s="110"/>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B87" s="32" t="s">
@@ -5922,21 +7023,21 @@
         <v>11</v>
       </c>
       <c r="E87" s="1"/>
-      <c r="F87" s="118"/>
-      <c r="G87" s="108"/>
-      <c r="H87" s="109"/>
-      <c r="I87" s="109"/>
-      <c r="J87" s="110"/>
+      <c r="F87" s="110"/>
+      <c r="G87" s="120"/>
+      <c r="H87" s="121"/>
+      <c r="I87" s="121"/>
+      <c r="J87" s="122"/>
       <c r="K87" s="57"/>
       <c r="L87" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M87" s="1"/>
-      <c r="N87" s="118"/>
-      <c r="O87" s="122"/>
-      <c r="P87" s="123"/>
-      <c r="Q87" s="123"/>
-      <c r="R87" s="118"/>
+      <c r="N87" s="110"/>
+      <c r="O87" s="108"/>
+      <c r="P87" s="109"/>
+      <c r="Q87" s="109"/>
+      <c r="R87" s="110"/>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B88" s="33" t="s">
@@ -5951,94 +7052,94 @@
       <c r="E88" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="F88" s="89"/>
-      <c r="G88" s="111"/>
-      <c r="H88" s="112"/>
-      <c r="I88" s="112"/>
-      <c r="J88" s="113"/>
+      <c r="F88" s="84"/>
+      <c r="G88" s="123"/>
+      <c r="H88" s="124"/>
+      <c r="I88" s="124"/>
+      <c r="J88" s="125"/>
       <c r="K88" s="54"/>
       <c r="L88" s="56" t="s">
         <v>11</v>
       </c>
       <c r="M88" s="56"/>
-      <c r="N88" s="89"/>
-      <c r="O88" s="124"/>
-      <c r="P88" s="125"/>
-      <c r="Q88" s="125"/>
-      <c r="R88" s="126"/>
+      <c r="N88" s="84"/>
+      <c r="O88" s="111"/>
+      <c r="P88" s="112"/>
+      <c r="Q88" s="112"/>
+      <c r="R88" s="113"/>
     </row>
     <row r="92" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="93" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="128" t="s">
+      <c r="B93" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="C93" s="72"/>
-      <c r="D93" s="72"/>
-      <c r="E93" s="72"/>
-      <c r="F93" s="72"/>
-      <c r="G93" s="72"/>
-      <c r="H93" s="72"/>
-      <c r="I93" s="72"/>
-      <c r="J93" s="72"/>
-      <c r="K93" s="72"/>
-      <c r="L93" s="72"/>
-      <c r="M93" s="72"/>
-      <c r="N93" s="72"/>
-      <c r="O93" s="72"/>
-      <c r="P93" s="72"/>
-      <c r="Q93" s="72"/>
-      <c r="R93" s="73"/>
+      <c r="C93" s="88"/>
+      <c r="D93" s="88"/>
+      <c r="E93" s="88"/>
+      <c r="F93" s="88"/>
+      <c r="G93" s="88"/>
+      <c r="H93" s="88"/>
+      <c r="I93" s="88"/>
+      <c r="J93" s="88"/>
+      <c r="K93" s="88"/>
+      <c r="L93" s="88"/>
+      <c r="M93" s="88"/>
+      <c r="N93" s="88"/>
+      <c r="O93" s="88"/>
+      <c r="P93" s="88"/>
+      <c r="Q93" s="88"/>
+      <c r="R93" s="89"/>
     </row>
     <row r="94" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="74"/>
-      <c r="C94" s="75"/>
-      <c r="D94" s="75"/>
-      <c r="E94" s="75"/>
-      <c r="F94" s="75"/>
-      <c r="G94" s="75"/>
-      <c r="H94" s="75"/>
-      <c r="I94" s="75"/>
-      <c r="J94" s="75"/>
-      <c r="K94" s="75"/>
-      <c r="L94" s="75"/>
-      <c r="M94" s="75"/>
-      <c r="N94" s="75"/>
-      <c r="O94" s="75"/>
-      <c r="P94" s="75"/>
-      <c r="Q94" s="75"/>
-      <c r="R94" s="76"/>
+      <c r="B94" s="90"/>
+      <c r="C94" s="91"/>
+      <c r="D94" s="91"/>
+      <c r="E94" s="91"/>
+      <c r="F94" s="91"/>
+      <c r="G94" s="91"/>
+      <c r="H94" s="91"/>
+      <c r="I94" s="91"/>
+      <c r="J94" s="91"/>
+      <c r="K94" s="91"/>
+      <c r="L94" s="91"/>
+      <c r="M94" s="91"/>
+      <c r="N94" s="91"/>
+      <c r="O94" s="91"/>
+      <c r="P94" s="91"/>
+      <c r="Q94" s="91"/>
+      <c r="R94" s="92"/>
     </row>
     <row r="95" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B95" s="136" t="s">
+      <c r="B95" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="77" t="s">
+      <c r="C95" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D95" s="82"/>
-      <c r="E95" s="82"/>
-      <c r="F95" s="83"/>
-      <c r="G95" s="77" t="s">
+      <c r="D95" s="94"/>
+      <c r="E95" s="94"/>
+      <c r="F95" s="95"/>
+      <c r="G95" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H95" s="82"/>
-      <c r="I95" s="82"/>
-      <c r="J95" s="83"/>
-      <c r="K95" s="77" t="s">
+      <c r="H95" s="94"/>
+      <c r="I95" s="94"/>
+      <c r="J95" s="95"/>
+      <c r="K95" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="L95" s="82"/>
-      <c r="M95" s="82"/>
-      <c r="N95" s="83"/>
-      <c r="O95" s="77" t="s">
+      <c r="L95" s="94"/>
+      <c r="M95" s="94"/>
+      <c r="N95" s="95"/>
+      <c r="O95" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="P95" s="82"/>
-      <c r="Q95" s="82"/>
-      <c r="R95" s="83"/>
+      <c r="P95" s="94"/>
+      <c r="Q95" s="94"/>
+      <c r="R95" s="95"/>
     </row>
     <row r="96" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="137"/>
+      <c r="B96" s="116"/>
       <c r="C96" s="25" t="s">
         <v>6</v>
       </c>
@@ -6095,23 +7196,23 @@
       <c r="C97" s="29"/>
       <c r="D97" s="28"/>
       <c r="E97" s="28"/>
-      <c r="F97" s="87"/>
-      <c r="G97" s="105" t="s">
+      <c r="F97" s="82"/>
+      <c r="G97" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H97" s="106"/>
-      <c r="I97" s="106"/>
-      <c r="J97" s="107"/>
+      <c r="H97" s="118"/>
+      <c r="I97" s="118"/>
+      <c r="J97" s="119"/>
       <c r="K97" s="30"/>
       <c r="L97" s="28"/>
       <c r="M97" s="28"/>
-      <c r="N97" s="87"/>
-      <c r="O97" s="119" t="s">
+      <c r="N97" s="82"/>
+      <c r="O97" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="P97" s="120"/>
-      <c r="Q97" s="120"/>
-      <c r="R97" s="121"/>
+      <c r="P97" s="106"/>
+      <c r="Q97" s="106"/>
+      <c r="R97" s="107"/>
     </row>
     <row r="98" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B98" s="36" t="s">
@@ -6124,21 +7225,21 @@
         <v>11</v>
       </c>
       <c r="E98" s="1"/>
-      <c r="F98" s="88"/>
-      <c r="G98" s="108"/>
-      <c r="H98" s="109"/>
-      <c r="I98" s="109"/>
-      <c r="J98" s="110"/>
+      <c r="F98" s="83"/>
+      <c r="G98" s="120"/>
+      <c r="H98" s="121"/>
+      <c r="I98" s="121"/>
+      <c r="J98" s="122"/>
       <c r="K98" s="8"/>
       <c r="L98" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M98" s="1"/>
-      <c r="N98" s="88"/>
-      <c r="O98" s="122"/>
-      <c r="P98" s="123"/>
-      <c r="Q98" s="123"/>
-      <c r="R98" s="118"/>
+      <c r="N98" s="83"/>
+      <c r="O98" s="108"/>
+      <c r="P98" s="109"/>
+      <c r="Q98" s="109"/>
+      <c r="R98" s="110"/>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B99" s="37" t="s">
@@ -6151,94 +7252,94 @@
         <v>11</v>
       </c>
       <c r="E99" s="14"/>
-      <c r="F99" s="89"/>
-      <c r="G99" s="111"/>
-      <c r="H99" s="112"/>
-      <c r="I99" s="112"/>
-      <c r="J99" s="113"/>
+      <c r="F99" s="84"/>
+      <c r="G99" s="123"/>
+      <c r="H99" s="124"/>
+      <c r="I99" s="124"/>
+      <c r="J99" s="125"/>
       <c r="K99" s="13"/>
       <c r="L99" s="14" t="s">
         <v>11</v>
       </c>
       <c r="M99" s="14"/>
-      <c r="N99" s="89"/>
-      <c r="O99" s="124"/>
-      <c r="P99" s="125"/>
-      <c r="Q99" s="125"/>
-      <c r="R99" s="126"/>
+      <c r="N99" s="84"/>
+      <c r="O99" s="111"/>
+      <c r="P99" s="112"/>
+      <c r="Q99" s="112"/>
+      <c r="R99" s="113"/>
     </row>
     <row r="103" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="104" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="128" t="s">
+      <c r="B104" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="C104" s="72"/>
-      <c r="D104" s="72"/>
-      <c r="E104" s="72"/>
-      <c r="F104" s="72"/>
-      <c r="G104" s="72"/>
-      <c r="H104" s="72"/>
-      <c r="I104" s="72"/>
-      <c r="J104" s="72"/>
-      <c r="K104" s="72"/>
-      <c r="L104" s="72"/>
-      <c r="M104" s="72"/>
-      <c r="N104" s="72"/>
-      <c r="O104" s="72"/>
-      <c r="P104" s="72"/>
-      <c r="Q104" s="72"/>
-      <c r="R104" s="73"/>
+      <c r="C104" s="88"/>
+      <c r="D104" s="88"/>
+      <c r="E104" s="88"/>
+      <c r="F104" s="88"/>
+      <c r="G104" s="88"/>
+      <c r="H104" s="88"/>
+      <c r="I104" s="88"/>
+      <c r="J104" s="88"/>
+      <c r="K104" s="88"/>
+      <c r="L104" s="88"/>
+      <c r="M104" s="88"/>
+      <c r="N104" s="88"/>
+      <c r="O104" s="88"/>
+      <c r="P104" s="88"/>
+      <c r="Q104" s="88"/>
+      <c r="R104" s="89"/>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B105" s="74"/>
-      <c r="C105" s="75"/>
-      <c r="D105" s="75"/>
-      <c r="E105" s="75"/>
-      <c r="F105" s="75"/>
-      <c r="G105" s="75"/>
-      <c r="H105" s="75"/>
-      <c r="I105" s="75"/>
-      <c r="J105" s="75"/>
-      <c r="K105" s="75"/>
-      <c r="L105" s="75"/>
-      <c r="M105" s="75"/>
-      <c r="N105" s="75"/>
-      <c r="O105" s="75"/>
-      <c r="P105" s="75"/>
-      <c r="Q105" s="75"/>
-      <c r="R105" s="76"/>
+      <c r="B105" s="90"/>
+      <c r="C105" s="91"/>
+      <c r="D105" s="91"/>
+      <c r="E105" s="91"/>
+      <c r="F105" s="91"/>
+      <c r="G105" s="91"/>
+      <c r="H105" s="91"/>
+      <c r="I105" s="91"/>
+      <c r="J105" s="91"/>
+      <c r="K105" s="91"/>
+      <c r="L105" s="91"/>
+      <c r="M105" s="91"/>
+      <c r="N105" s="91"/>
+      <c r="O105" s="91"/>
+      <c r="P105" s="91"/>
+      <c r="Q105" s="91"/>
+      <c r="R105" s="92"/>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B106" s="136" t="s">
+      <c r="B106" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C106" s="77" t="s">
+      <c r="C106" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D106" s="82"/>
-      <c r="E106" s="82"/>
-      <c r="F106" s="83"/>
-      <c r="G106" s="77" t="s">
+      <c r="D106" s="94"/>
+      <c r="E106" s="94"/>
+      <c r="F106" s="95"/>
+      <c r="G106" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H106" s="82"/>
-      <c r="I106" s="82"/>
-      <c r="J106" s="83"/>
-      <c r="K106" s="77" t="s">
+      <c r="H106" s="94"/>
+      <c r="I106" s="94"/>
+      <c r="J106" s="95"/>
+      <c r="K106" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="L106" s="82"/>
-      <c r="M106" s="82"/>
-      <c r="N106" s="83"/>
-      <c r="O106" s="77" t="s">
+      <c r="L106" s="94"/>
+      <c r="M106" s="94"/>
+      <c r="N106" s="95"/>
+      <c r="O106" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="P106" s="82"/>
-      <c r="Q106" s="82"/>
-      <c r="R106" s="83"/>
+      <c r="P106" s="94"/>
+      <c r="Q106" s="94"/>
+      <c r="R106" s="95"/>
     </row>
     <row r="107" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="137"/>
+      <c r="B107" s="116"/>
       <c r="C107" s="25" t="s">
         <v>6</v>
       </c>
@@ -6295,23 +7396,23 @@
       <c r="C108" s="30"/>
       <c r="D108" s="28"/>
       <c r="E108" s="28"/>
-      <c r="F108" s="87"/>
-      <c r="G108" s="105" t="s">
+      <c r="F108" s="82"/>
+      <c r="G108" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H108" s="106"/>
-      <c r="I108" s="106"/>
-      <c r="J108" s="107"/>
+      <c r="H108" s="118"/>
+      <c r="I108" s="118"/>
+      <c r="J108" s="119"/>
       <c r="K108" s="30"/>
       <c r="L108" s="28"/>
       <c r="M108" s="28"/>
-      <c r="N108" s="87"/>
-      <c r="O108" s="119" t="s">
+      <c r="N108" s="82"/>
+      <c r="O108" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="P108" s="120"/>
-      <c r="Q108" s="120"/>
-      <c r="R108" s="121"/>
+      <c r="P108" s="106"/>
+      <c r="Q108" s="106"/>
+      <c r="R108" s="107"/>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B109" s="47" t="s">
@@ -6324,21 +7425,21 @@
         <v>11</v>
       </c>
       <c r="E109" s="1"/>
-      <c r="F109" s="88"/>
-      <c r="G109" s="108"/>
-      <c r="H109" s="109"/>
-      <c r="I109" s="109"/>
-      <c r="J109" s="110"/>
+      <c r="F109" s="83"/>
+      <c r="G109" s="120"/>
+      <c r="H109" s="121"/>
+      <c r="I109" s="121"/>
+      <c r="J109" s="122"/>
       <c r="K109" s="8"/>
       <c r="L109" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M109" s="1"/>
-      <c r="N109" s="88"/>
-      <c r="O109" s="122"/>
-      <c r="P109" s="123"/>
-      <c r="Q109" s="123"/>
-      <c r="R109" s="118"/>
+      <c r="N109" s="83"/>
+      <c r="O109" s="108"/>
+      <c r="P109" s="109"/>
+      <c r="Q109" s="109"/>
+      <c r="R109" s="110"/>
     </row>
     <row r="110" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B110" s="47" t="s">
@@ -6351,21 +7452,21 @@
         <v>11</v>
       </c>
       <c r="E110" s="1"/>
-      <c r="F110" s="88"/>
-      <c r="G110" s="108"/>
-      <c r="H110" s="109"/>
-      <c r="I110" s="109"/>
-      <c r="J110" s="110"/>
+      <c r="F110" s="83"/>
+      <c r="G110" s="120"/>
+      <c r="H110" s="121"/>
+      <c r="I110" s="121"/>
+      <c r="J110" s="122"/>
       <c r="K110" s="8"/>
       <c r="L110" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M110" s="1"/>
-      <c r="N110" s="88"/>
-      <c r="O110" s="122"/>
-      <c r="P110" s="123"/>
-      <c r="Q110" s="123"/>
-      <c r="R110" s="118"/>
+      <c r="N110" s="83"/>
+      <c r="O110" s="108"/>
+      <c r="P110" s="109"/>
+      <c r="Q110" s="109"/>
+      <c r="R110" s="110"/>
     </row>
     <row r="111" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B111" s="48" t="s">
@@ -6378,94 +7479,94 @@
         <v>11</v>
       </c>
       <c r="E111" s="45"/>
-      <c r="F111" s="89"/>
-      <c r="G111" s="111"/>
-      <c r="H111" s="112"/>
-      <c r="I111" s="112"/>
-      <c r="J111" s="113"/>
+      <c r="F111" s="84"/>
+      <c r="G111" s="123"/>
+      <c r="H111" s="124"/>
+      <c r="I111" s="124"/>
+      <c r="J111" s="125"/>
       <c r="K111" s="13"/>
       <c r="L111" s="14" t="s">
         <v>11</v>
       </c>
       <c r="M111" s="14"/>
-      <c r="N111" s="89"/>
-      <c r="O111" s="124"/>
-      <c r="P111" s="125"/>
-      <c r="Q111" s="125"/>
-      <c r="R111" s="126"/>
+      <c r="N111" s="84"/>
+      <c r="O111" s="111"/>
+      <c r="P111" s="112"/>
+      <c r="Q111" s="112"/>
+      <c r="R111" s="113"/>
     </row>
     <row r="114" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="115" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="128" t="s">
+      <c r="B115" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="C115" s="72"/>
-      <c r="D115" s="72"/>
-      <c r="E115" s="72"/>
-      <c r="F115" s="72"/>
-      <c r="G115" s="72"/>
-      <c r="H115" s="72"/>
-      <c r="I115" s="72"/>
-      <c r="J115" s="72"/>
-      <c r="K115" s="72"/>
-      <c r="L115" s="72"/>
-      <c r="M115" s="72"/>
-      <c r="N115" s="72"/>
-      <c r="O115" s="72"/>
-      <c r="P115" s="72"/>
-      <c r="Q115" s="72"/>
-      <c r="R115" s="73"/>
+      <c r="C115" s="88"/>
+      <c r="D115" s="88"/>
+      <c r="E115" s="88"/>
+      <c r="F115" s="88"/>
+      <c r="G115" s="88"/>
+      <c r="H115" s="88"/>
+      <c r="I115" s="88"/>
+      <c r="J115" s="88"/>
+      <c r="K115" s="88"/>
+      <c r="L115" s="88"/>
+      <c r="M115" s="88"/>
+      <c r="N115" s="88"/>
+      <c r="O115" s="88"/>
+      <c r="P115" s="88"/>
+      <c r="Q115" s="88"/>
+      <c r="R115" s="89"/>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B116" s="74"/>
-      <c r="C116" s="75"/>
-      <c r="D116" s="75"/>
-      <c r="E116" s="75"/>
-      <c r="F116" s="75"/>
-      <c r="G116" s="75"/>
-      <c r="H116" s="75"/>
-      <c r="I116" s="75"/>
-      <c r="J116" s="75"/>
-      <c r="K116" s="75"/>
-      <c r="L116" s="75"/>
-      <c r="M116" s="75"/>
-      <c r="N116" s="75"/>
-      <c r="O116" s="75"/>
-      <c r="P116" s="75"/>
-      <c r="Q116" s="75"/>
-      <c r="R116" s="76"/>
+      <c r="B116" s="90"/>
+      <c r="C116" s="91"/>
+      <c r="D116" s="91"/>
+      <c r="E116" s="91"/>
+      <c r="F116" s="91"/>
+      <c r="G116" s="91"/>
+      <c r="H116" s="91"/>
+      <c r="I116" s="91"/>
+      <c r="J116" s="91"/>
+      <c r="K116" s="91"/>
+      <c r="L116" s="91"/>
+      <c r="M116" s="91"/>
+      <c r="N116" s="91"/>
+      <c r="O116" s="91"/>
+      <c r="P116" s="91"/>
+      <c r="Q116" s="91"/>
+      <c r="R116" s="92"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B117" s="136" t="s">
+      <c r="B117" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C117" s="77" t="s">
+      <c r="C117" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D117" s="82"/>
-      <c r="E117" s="82"/>
-      <c r="F117" s="83"/>
-      <c r="G117" s="77" t="s">
+      <c r="D117" s="94"/>
+      <c r="E117" s="94"/>
+      <c r="F117" s="95"/>
+      <c r="G117" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H117" s="82"/>
-      <c r="I117" s="82"/>
-      <c r="J117" s="83"/>
-      <c r="K117" s="77" t="s">
+      <c r="H117" s="94"/>
+      <c r="I117" s="94"/>
+      <c r="J117" s="95"/>
+      <c r="K117" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="L117" s="82"/>
-      <c r="M117" s="82"/>
-      <c r="N117" s="83"/>
-      <c r="O117" s="77" t="s">
+      <c r="L117" s="94"/>
+      <c r="M117" s="94"/>
+      <c r="N117" s="95"/>
+      <c r="O117" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="P117" s="82"/>
-      <c r="Q117" s="82"/>
-      <c r="R117" s="83"/>
+      <c r="P117" s="94"/>
+      <c r="Q117" s="94"/>
+      <c r="R117" s="95"/>
     </row>
     <row r="118" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="137"/>
+      <c r="B118" s="116"/>
       <c r="C118" s="25" t="s">
         <v>6</v>
       </c>
@@ -6524,25 +7625,25 @@
         <v>11</v>
       </c>
       <c r="E119" s="28"/>
-      <c r="F119" s="87"/>
-      <c r="G119" s="105" t="s">
+      <c r="F119" s="82"/>
+      <c r="G119" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H119" s="120"/>
-      <c r="I119" s="120"/>
-      <c r="J119" s="121"/>
-      <c r="K119" s="105" t="s">
+      <c r="H119" s="106"/>
+      <c r="I119" s="106"/>
+      <c r="J119" s="107"/>
+      <c r="K119" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="L119" s="120"/>
-      <c r="M119" s="120"/>
-      <c r="N119" s="121"/>
-      <c r="O119" s="119" t="s">
+      <c r="L119" s="106"/>
+      <c r="M119" s="106"/>
+      <c r="N119" s="107"/>
+      <c r="O119" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="P119" s="120"/>
-      <c r="Q119" s="120"/>
-      <c r="R119" s="121"/>
+      <c r="P119" s="106"/>
+      <c r="Q119" s="106"/>
+      <c r="R119" s="107"/>
     </row>
     <row r="120" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B120" s="36" t="s">
@@ -6553,19 +7654,19 @@
         <v>11</v>
       </c>
       <c r="E120" s="1"/>
-      <c r="F120" s="88"/>
-      <c r="G120" s="122"/>
-      <c r="H120" s="123"/>
-      <c r="I120" s="123"/>
-      <c r="J120" s="118"/>
-      <c r="K120" s="122"/>
-      <c r="L120" s="123"/>
-      <c r="M120" s="123"/>
-      <c r="N120" s="118"/>
-      <c r="O120" s="122"/>
-      <c r="P120" s="123"/>
-      <c r="Q120" s="123"/>
-      <c r="R120" s="118"/>
+      <c r="F120" s="83"/>
+      <c r="G120" s="108"/>
+      <c r="H120" s="109"/>
+      <c r="I120" s="109"/>
+      <c r="J120" s="110"/>
+      <c r="K120" s="108"/>
+      <c r="L120" s="109"/>
+      <c r="M120" s="109"/>
+      <c r="N120" s="110"/>
+      <c r="O120" s="108"/>
+      <c r="P120" s="109"/>
+      <c r="Q120" s="109"/>
+      <c r="R120" s="110"/>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B121" s="37" t="s">
@@ -6576,91 +7677,91 @@
         <v>11</v>
       </c>
       <c r="E121" s="14"/>
-      <c r="F121" s="89"/>
-      <c r="G121" s="124"/>
-      <c r="H121" s="125"/>
-      <c r="I121" s="125"/>
-      <c r="J121" s="126"/>
-      <c r="K121" s="124"/>
-      <c r="L121" s="125"/>
-      <c r="M121" s="125"/>
-      <c r="N121" s="126"/>
-      <c r="O121" s="124"/>
-      <c r="P121" s="125"/>
-      <c r="Q121" s="125"/>
-      <c r="R121" s="126"/>
+      <c r="F121" s="84"/>
+      <c r="G121" s="111"/>
+      <c r="H121" s="112"/>
+      <c r="I121" s="112"/>
+      <c r="J121" s="113"/>
+      <c r="K121" s="111"/>
+      <c r="L121" s="112"/>
+      <c r="M121" s="112"/>
+      <c r="N121" s="113"/>
+      <c r="O121" s="111"/>
+      <c r="P121" s="112"/>
+      <c r="Q121" s="112"/>
+      <c r="R121" s="113"/>
     </row>
     <row r="125" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B125" s="128" t="s">
+      <c r="B125" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="C125" s="72"/>
-      <c r="D125" s="72"/>
-      <c r="E125" s="72"/>
-      <c r="F125" s="72"/>
-      <c r="G125" s="72"/>
-      <c r="H125" s="72"/>
-      <c r="I125" s="72"/>
-      <c r="J125" s="72"/>
-      <c r="K125" s="72"/>
-      <c r="L125" s="72"/>
-      <c r="M125" s="72"/>
-      <c r="N125" s="72"/>
-      <c r="O125" s="72"/>
-      <c r="P125" s="72"/>
-      <c r="Q125" s="72"/>
-      <c r="R125" s="73"/>
+      <c r="C125" s="88"/>
+      <c r="D125" s="88"/>
+      <c r="E125" s="88"/>
+      <c r="F125" s="88"/>
+      <c r="G125" s="88"/>
+      <c r="H125" s="88"/>
+      <c r="I125" s="88"/>
+      <c r="J125" s="88"/>
+      <c r="K125" s="88"/>
+      <c r="L125" s="88"/>
+      <c r="M125" s="88"/>
+      <c r="N125" s="88"/>
+      <c r="O125" s="88"/>
+      <c r="P125" s="88"/>
+      <c r="Q125" s="88"/>
+      <c r="R125" s="89"/>
     </row>
     <row r="126" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B126" s="74"/>
-      <c r="C126" s="75"/>
-      <c r="D126" s="75"/>
-      <c r="E126" s="75"/>
-      <c r="F126" s="75"/>
-      <c r="G126" s="75"/>
-      <c r="H126" s="75"/>
-      <c r="I126" s="75"/>
-      <c r="J126" s="75"/>
-      <c r="K126" s="75"/>
-      <c r="L126" s="75"/>
-      <c r="M126" s="75"/>
-      <c r="N126" s="75"/>
-      <c r="O126" s="75"/>
-      <c r="P126" s="75"/>
-      <c r="Q126" s="75"/>
-      <c r="R126" s="76"/>
+      <c r="B126" s="90"/>
+      <c r="C126" s="91"/>
+      <c r="D126" s="91"/>
+      <c r="E126" s="91"/>
+      <c r="F126" s="91"/>
+      <c r="G126" s="91"/>
+      <c r="H126" s="91"/>
+      <c r="I126" s="91"/>
+      <c r="J126" s="91"/>
+      <c r="K126" s="91"/>
+      <c r="L126" s="91"/>
+      <c r="M126" s="91"/>
+      <c r="N126" s="91"/>
+      <c r="O126" s="91"/>
+      <c r="P126" s="91"/>
+      <c r="Q126" s="91"/>
+      <c r="R126" s="92"/>
     </row>
     <row r="127" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B127" s="136" t="s">
+      <c r="B127" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C127" s="77" t="s">
+      <c r="C127" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D127" s="82"/>
-      <c r="E127" s="82"/>
-      <c r="F127" s="83"/>
-      <c r="G127" s="77" t="s">
+      <c r="D127" s="94"/>
+      <c r="E127" s="94"/>
+      <c r="F127" s="95"/>
+      <c r="G127" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H127" s="82"/>
-      <c r="I127" s="82"/>
-      <c r="J127" s="83"/>
-      <c r="K127" s="77" t="s">
+      <c r="H127" s="94"/>
+      <c r="I127" s="94"/>
+      <c r="J127" s="95"/>
+      <c r="K127" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="L127" s="82"/>
-      <c r="M127" s="82"/>
-      <c r="N127" s="83"/>
-      <c r="O127" s="77" t="s">
+      <c r="L127" s="94"/>
+      <c r="M127" s="94"/>
+      <c r="N127" s="95"/>
+      <c r="O127" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="P127" s="82"/>
-      <c r="Q127" s="82"/>
-      <c r="R127" s="83"/>
+      <c r="P127" s="94"/>
+      <c r="Q127" s="94"/>
+      <c r="R127" s="95"/>
     </row>
     <row r="128" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B128" s="138"/>
+      <c r="B128" s="126"/>
       <c r="C128" s="25" t="s">
         <v>6</v>
       </c>
@@ -6719,23 +7820,23 @@
         <v>11</v>
       </c>
       <c r="E129" s="28"/>
-      <c r="F129" s="114"/>
-      <c r="G129" s="105" t="s">
+      <c r="F129" s="137"/>
+      <c r="G129" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H129" s="106"/>
-      <c r="I129" s="106"/>
-      <c r="J129" s="106"/>
+      <c r="H129" s="118"/>
+      <c r="I129" s="118"/>
+      <c r="J129" s="118"/>
       <c r="K129" s="30"/>
       <c r="L129" s="28" t="s">
         <v>11</v>
       </c>
       <c r="M129" s="28"/>
-      <c r="N129" s="87"/>
+      <c r="N129" s="82"/>
       <c r="O129" s="29"/>
       <c r="P129" s="28"/>
       <c r="Q129" s="28"/>
-      <c r="R129" s="87"/>
+      <c r="R129" s="82"/>
     </row>
     <row r="130" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B130" s="32" t="s">
@@ -6748,23 +7849,23 @@
         <v>11</v>
       </c>
       <c r="E130" s="1"/>
-      <c r="F130" s="115"/>
-      <c r="G130" s="108"/>
-      <c r="H130" s="109"/>
-      <c r="I130" s="109"/>
-      <c r="J130" s="109"/>
+      <c r="F130" s="136"/>
+      <c r="G130" s="120"/>
+      <c r="H130" s="121"/>
+      <c r="I130" s="121"/>
+      <c r="J130" s="121"/>
       <c r="K130" s="8"/>
       <c r="L130" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M130" s="1"/>
-      <c r="N130" s="88"/>
+      <c r="N130" s="83"/>
       <c r="O130" s="6" t="s">
         <v>11</v>
       </c>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
-      <c r="R130" s="88"/>
+      <c r="R130" s="83"/>
     </row>
     <row r="131" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B131" s="32" t="s">
@@ -6777,23 +7878,23 @@
         <v>11</v>
       </c>
       <c r="E131" s="1"/>
-      <c r="F131" s="115"/>
-      <c r="G131" s="108"/>
-      <c r="H131" s="109"/>
-      <c r="I131" s="109"/>
-      <c r="J131" s="109"/>
+      <c r="F131" s="136"/>
+      <c r="G131" s="120"/>
+      <c r="H131" s="121"/>
+      <c r="I131" s="121"/>
+      <c r="J131" s="121"/>
       <c r="K131" s="8"/>
       <c r="L131" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M131" s="1"/>
-      <c r="N131" s="88"/>
+      <c r="N131" s="83"/>
       <c r="O131" s="6" t="s">
         <v>22</v>
       </c>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
-      <c r="R131" s="88"/>
+      <c r="R131" s="83"/>
     </row>
     <row r="132" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B132" s="32" t="s">
@@ -6806,23 +7907,23 @@
         <v>11</v>
       </c>
       <c r="E132" s="1"/>
-      <c r="F132" s="115"/>
-      <c r="G132" s="108"/>
-      <c r="H132" s="109"/>
-      <c r="I132" s="109"/>
-      <c r="J132" s="109"/>
+      <c r="F132" s="136"/>
+      <c r="G132" s="120"/>
+      <c r="H132" s="121"/>
+      <c r="I132" s="121"/>
+      <c r="J132" s="121"/>
       <c r="K132" s="8"/>
       <c r="L132" s="40" t="s">
         <v>11</v>
       </c>
       <c r="M132" s="1"/>
-      <c r="N132" s="88"/>
+      <c r="N132" s="83"/>
       <c r="O132" s="6" t="s">
         <v>11</v>
       </c>
       <c r="P132" s="40"/>
       <c r="Q132" s="1"/>
-      <c r="R132" s="88"/>
+      <c r="R132" s="83"/>
     </row>
     <row r="133" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B133" s="32" t="s">
@@ -6837,23 +7938,23 @@
       <c r="E133" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="F133" s="115"/>
-      <c r="G133" s="108"/>
-      <c r="H133" s="109"/>
-      <c r="I133" s="109"/>
-      <c r="J133" s="109"/>
+      <c r="F133" s="136"/>
+      <c r="G133" s="120"/>
+      <c r="H133" s="121"/>
+      <c r="I133" s="121"/>
+      <c r="J133" s="121"/>
       <c r="K133" s="52"/>
       <c r="L133" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M133" s="53"/>
-      <c r="N133" s="115"/>
+      <c r="N133" s="136"/>
       <c r="O133" s="52" t="s">
         <v>11</v>
       </c>
       <c r="P133" s="1"/>
       <c r="Q133" s="53"/>
-      <c r="R133" s="88"/>
+      <c r="R133" s="83"/>
     </row>
     <row r="134" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B134" s="32" t="s">
@@ -6866,23 +7967,23 @@
         <v>11</v>
       </c>
       <c r="E134" s="1"/>
-      <c r="F134" s="115"/>
-      <c r="G134" s="108"/>
-      <c r="H134" s="109"/>
-      <c r="I134" s="109"/>
-      <c r="J134" s="109"/>
+      <c r="F134" s="136"/>
+      <c r="G134" s="120"/>
+      <c r="H134" s="121"/>
+      <c r="I134" s="121"/>
+      <c r="J134" s="121"/>
       <c r="K134" s="8"/>
       <c r="L134" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M134" s="1"/>
-      <c r="N134" s="88"/>
+      <c r="N134" s="83"/>
       <c r="O134" s="6" t="s">
         <v>11</v>
       </c>
       <c r="P134" s="4"/>
       <c r="Q134" s="1"/>
-      <c r="R134" s="88"/>
+      <c r="R134" s="83"/>
     </row>
     <row r="135" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B135" s="33" t="s">
@@ -6895,95 +7996,95 @@
         <v>11</v>
       </c>
       <c r="E135" s="14"/>
-      <c r="F135" s="116"/>
-      <c r="G135" s="111"/>
-      <c r="H135" s="112"/>
-      <c r="I135" s="112"/>
-      <c r="J135" s="112"/>
+      <c r="F135" s="138"/>
+      <c r="G135" s="123"/>
+      <c r="H135" s="124"/>
+      <c r="I135" s="124"/>
+      <c r="J135" s="124"/>
       <c r="K135" s="13"/>
       <c r="L135" s="14" t="s">
         <v>11</v>
       </c>
       <c r="M135" s="14"/>
-      <c r="N135" s="89"/>
+      <c r="N135" s="84"/>
       <c r="O135" s="16" t="s">
         <v>28</v>
       </c>
       <c r="P135" s="14"/>
       <c r="Q135" s="14"/>
-      <c r="R135" s="89"/>
+      <c r="R135" s="84"/>
     </row>
     <row r="138" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B138" s="129" t="s">
+      <c r="B138" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="C138" s="130"/>
-      <c r="D138" s="130"/>
-      <c r="E138" s="130"/>
-      <c r="F138" s="130"/>
-      <c r="G138" s="130"/>
-      <c r="H138" s="130"/>
-      <c r="I138" s="130"/>
-      <c r="J138" s="130"/>
-      <c r="K138" s="130"/>
-      <c r="L138" s="130"/>
-      <c r="M138" s="130"/>
-      <c r="N138" s="130"/>
-      <c r="O138" s="130"/>
-      <c r="P138" s="130"/>
-      <c r="Q138" s="130"/>
-      <c r="R138" s="131"/>
+      <c r="C138" s="128"/>
+      <c r="D138" s="128"/>
+      <c r="E138" s="128"/>
+      <c r="F138" s="128"/>
+      <c r="G138" s="128"/>
+      <c r="H138" s="128"/>
+      <c r="I138" s="128"/>
+      <c r="J138" s="128"/>
+      <c r="K138" s="128"/>
+      <c r="L138" s="128"/>
+      <c r="M138" s="128"/>
+      <c r="N138" s="128"/>
+      <c r="O138" s="128"/>
+      <c r="P138" s="128"/>
+      <c r="Q138" s="128"/>
+      <c r="R138" s="129"/>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B139" s="132"/>
-      <c r="C139" s="133"/>
-      <c r="D139" s="133"/>
-      <c r="E139" s="133"/>
-      <c r="F139" s="133"/>
-      <c r="G139" s="133"/>
-      <c r="H139" s="133"/>
-      <c r="I139" s="133"/>
-      <c r="J139" s="133"/>
-      <c r="K139" s="133"/>
-      <c r="L139" s="133"/>
-      <c r="M139" s="133"/>
-      <c r="N139" s="133"/>
-      <c r="O139" s="133"/>
-      <c r="P139" s="133"/>
-      <c r="Q139" s="133"/>
-      <c r="R139" s="134"/>
+      <c r="B139" s="130"/>
+      <c r="C139" s="131"/>
+      <c r="D139" s="131"/>
+      <c r="E139" s="131"/>
+      <c r="F139" s="131"/>
+      <c r="G139" s="131"/>
+      <c r="H139" s="131"/>
+      <c r="I139" s="131"/>
+      <c r="J139" s="131"/>
+      <c r="K139" s="131"/>
+      <c r="L139" s="131"/>
+      <c r="M139" s="131"/>
+      <c r="N139" s="131"/>
+      <c r="O139" s="131"/>
+      <c r="P139" s="131"/>
+      <c r="Q139" s="131"/>
+      <c r="R139" s="132"/>
     </row>
     <row r="140" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B140" s="77" t="s">
+      <c r="B140" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C140" s="79" t="s">
+      <c r="C140" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D140" s="80"/>
-      <c r="E140" s="80"/>
-      <c r="F140" s="81"/>
-      <c r="G140" s="79" t="s">
+      <c r="D140" s="74"/>
+      <c r="E140" s="74"/>
+      <c r="F140" s="93"/>
+      <c r="G140" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H140" s="80"/>
-      <c r="I140" s="80"/>
-      <c r="J140" s="90"/>
-      <c r="K140" s="127" t="s">
+      <c r="H140" s="74"/>
+      <c r="I140" s="74"/>
+      <c r="J140" s="75"/>
+      <c r="K140" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="L140" s="80"/>
-      <c r="M140" s="80"/>
-      <c r="N140" s="81"/>
-      <c r="O140" s="79" t="s">
+      <c r="L140" s="74"/>
+      <c r="M140" s="74"/>
+      <c r="N140" s="93"/>
+      <c r="O140" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="P140" s="80"/>
-      <c r="Q140" s="80"/>
-      <c r="R140" s="90"/>
+      <c r="P140" s="74"/>
+      <c r="Q140" s="74"/>
+      <c r="R140" s="75"/>
     </row>
     <row r="141" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B141" s="135"/>
+      <c r="B141" s="133"/>
       <c r="C141" s="18" t="s">
         <v>6</v>
       </c>
@@ -7042,25 +8143,25 @@
         <v>11</v>
       </c>
       <c r="E142" s="10"/>
-      <c r="F142" s="87"/>
+      <c r="F142" s="82"/>
       <c r="G142" s="29"/>
       <c r="H142" s="28" t="s">
         <v>11</v>
       </c>
       <c r="I142" s="60"/>
-      <c r="J142" s="114"/>
-      <c r="K142" s="117" t="s">
+      <c r="J142" s="137"/>
+      <c r="K142" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="L142" s="117"/>
-      <c r="M142" s="117"/>
-      <c r="N142" s="117"/>
-      <c r="O142" s="117" t="s">
+      <c r="L142" s="140"/>
+      <c r="M142" s="140"/>
+      <c r="N142" s="140"/>
+      <c r="O142" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="P142" s="117"/>
-      <c r="Q142" s="117"/>
-      <c r="R142" s="117"/>
+      <c r="P142" s="140"/>
+      <c r="Q142" s="140"/>
+      <c r="R142" s="140"/>
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B143" s="36" t="s">
@@ -7073,21 +8174,21 @@
         <v>11</v>
       </c>
       <c r="E143" s="5"/>
-      <c r="F143" s="88"/>
+      <c r="F143" s="83"/>
       <c r="G143" s="6"/>
       <c r="H143" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I143" s="5"/>
-      <c r="J143" s="115"/>
-      <c r="K143" s="117"/>
-      <c r="L143" s="117"/>
-      <c r="M143" s="117"/>
-      <c r="N143" s="117"/>
-      <c r="O143" s="117"/>
-      <c r="P143" s="117"/>
-      <c r="Q143" s="117"/>
-      <c r="R143" s="117"/>
+      <c r="J143" s="136"/>
+      <c r="K143" s="140"/>
+      <c r="L143" s="140"/>
+      <c r="M143" s="140"/>
+      <c r="N143" s="140"/>
+      <c r="O143" s="140"/>
+      <c r="P143" s="140"/>
+      <c r="Q143" s="140"/>
+      <c r="R143" s="140"/>
     </row>
     <row r="144" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B144" s="36" t="s">
@@ -7098,19 +8199,19 @@
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="5"/>
-      <c r="F144" s="88"/>
+      <c r="F144" s="83"/>
       <c r="G144" s="6"/>
       <c r="H144" s="1"/>
       <c r="I144" s="5"/>
-      <c r="J144" s="115"/>
-      <c r="K144" s="117"/>
-      <c r="L144" s="117"/>
-      <c r="M144" s="117"/>
-      <c r="N144" s="117"/>
-      <c r="O144" s="117"/>
-      <c r="P144" s="117"/>
-      <c r="Q144" s="117"/>
-      <c r="R144" s="117"/>
+      <c r="J144" s="136"/>
+      <c r="K144" s="140"/>
+      <c r="L144" s="140"/>
+      <c r="M144" s="140"/>
+      <c r="N144" s="140"/>
+      <c r="O144" s="140"/>
+      <c r="P144" s="140"/>
+      <c r="Q144" s="140"/>
+      <c r="R144" s="140"/>
     </row>
     <row r="145" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B145" s="36" t="s">
@@ -7125,21 +8226,21 @@
       <c r="E145" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="F145" s="88"/>
+      <c r="F145" s="83"/>
       <c r="G145" s="6"/>
       <c r="H145" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I145" s="5"/>
-      <c r="J145" s="115"/>
-      <c r="K145" s="117"/>
-      <c r="L145" s="117"/>
-      <c r="M145" s="117"/>
-      <c r="N145" s="117"/>
-      <c r="O145" s="117"/>
-      <c r="P145" s="117"/>
-      <c r="Q145" s="117"/>
-      <c r="R145" s="117"/>
+      <c r="J145" s="136"/>
+      <c r="K145" s="140"/>
+      <c r="L145" s="140"/>
+      <c r="M145" s="140"/>
+      <c r="N145" s="140"/>
+      <c r="O145" s="140"/>
+      <c r="P145" s="140"/>
+      <c r="Q145" s="140"/>
+      <c r="R145" s="140"/>
     </row>
     <row r="146" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B146" s="38" t="s">
@@ -7152,93 +8253,93 @@
         <v>11</v>
       </c>
       <c r="E146" s="15"/>
-      <c r="F146" s="89"/>
+      <c r="F146" s="84"/>
       <c r="G146" s="16"/>
       <c r="H146" s="14" t="s">
         <v>11</v>
       </c>
       <c r="I146" s="15"/>
-      <c r="J146" s="116"/>
-      <c r="K146" s="117"/>
-      <c r="L146" s="117"/>
-      <c r="M146" s="117"/>
-      <c r="N146" s="117"/>
-      <c r="O146" s="117"/>
-      <c r="P146" s="117"/>
-      <c r="Q146" s="117"/>
-      <c r="R146" s="117"/>
+      <c r="J146" s="138"/>
+      <c r="K146" s="140"/>
+      <c r="L146" s="140"/>
+      <c r="M146" s="140"/>
+      <c r="N146" s="140"/>
+      <c r="O146" s="140"/>
+      <c r="P146" s="140"/>
+      <c r="Q146" s="140"/>
+      <c r="R146" s="140"/>
     </row>
     <row r="149" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B149" s="129" t="s">
+      <c r="B149" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="C149" s="130"/>
-      <c r="D149" s="130"/>
-      <c r="E149" s="130"/>
-      <c r="F149" s="130"/>
-      <c r="G149" s="130"/>
-      <c r="H149" s="130"/>
-      <c r="I149" s="130"/>
-      <c r="J149" s="130"/>
-      <c r="K149" s="130"/>
-      <c r="L149" s="130"/>
-      <c r="M149" s="130"/>
-      <c r="N149" s="130"/>
-      <c r="O149" s="130"/>
-      <c r="P149" s="130"/>
-      <c r="Q149" s="130"/>
-      <c r="R149" s="131"/>
+      <c r="C149" s="128"/>
+      <c r="D149" s="128"/>
+      <c r="E149" s="128"/>
+      <c r="F149" s="128"/>
+      <c r="G149" s="128"/>
+      <c r="H149" s="128"/>
+      <c r="I149" s="128"/>
+      <c r="J149" s="128"/>
+      <c r="K149" s="128"/>
+      <c r="L149" s="128"/>
+      <c r="M149" s="128"/>
+      <c r="N149" s="128"/>
+      <c r="O149" s="128"/>
+      <c r="P149" s="128"/>
+      <c r="Q149" s="128"/>
+      <c r="R149" s="129"/>
     </row>
     <row r="150" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B150" s="132"/>
-      <c r="C150" s="133"/>
-      <c r="D150" s="133"/>
-      <c r="E150" s="133"/>
-      <c r="F150" s="133"/>
-      <c r="G150" s="133"/>
-      <c r="H150" s="133"/>
-      <c r="I150" s="133"/>
-      <c r="J150" s="133"/>
-      <c r="K150" s="133"/>
-      <c r="L150" s="133"/>
-      <c r="M150" s="133"/>
-      <c r="N150" s="133"/>
-      <c r="O150" s="133"/>
-      <c r="P150" s="133"/>
-      <c r="Q150" s="133"/>
-      <c r="R150" s="134"/>
+      <c r="B150" s="130"/>
+      <c r="C150" s="131"/>
+      <c r="D150" s="131"/>
+      <c r="E150" s="131"/>
+      <c r="F150" s="131"/>
+      <c r="G150" s="131"/>
+      <c r="H150" s="131"/>
+      <c r="I150" s="131"/>
+      <c r="J150" s="131"/>
+      <c r="K150" s="131"/>
+      <c r="L150" s="131"/>
+      <c r="M150" s="131"/>
+      <c r="N150" s="131"/>
+      <c r="O150" s="131"/>
+      <c r="P150" s="131"/>
+      <c r="Q150" s="131"/>
+      <c r="R150" s="132"/>
     </row>
     <row r="151" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B151" s="77" t="s">
+      <c r="B151" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C151" s="79" t="s">
+      <c r="C151" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D151" s="80"/>
-      <c r="E151" s="80"/>
-      <c r="F151" s="81"/>
-      <c r="G151" s="79" t="s">
+      <c r="D151" s="74"/>
+      <c r="E151" s="74"/>
+      <c r="F151" s="93"/>
+      <c r="G151" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H151" s="80"/>
-      <c r="I151" s="80"/>
-      <c r="J151" s="90"/>
-      <c r="K151" s="127" t="s">
+      <c r="H151" s="74"/>
+      <c r="I151" s="74"/>
+      <c r="J151" s="75"/>
+      <c r="K151" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="L151" s="80"/>
-      <c r="M151" s="80"/>
-      <c r="N151" s="81"/>
-      <c r="O151" s="79" t="s">
+      <c r="L151" s="74"/>
+      <c r="M151" s="74"/>
+      <c r="N151" s="93"/>
+      <c r="O151" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="P151" s="80"/>
-      <c r="Q151" s="80"/>
-      <c r="R151" s="90"/>
+      <c r="P151" s="74"/>
+      <c r="Q151" s="74"/>
+      <c r="R151" s="75"/>
     </row>
     <row r="152" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B152" s="135"/>
+      <c r="B152" s="133"/>
       <c r="C152" s="25" t="s">
         <v>6</v>
       </c>
@@ -7297,25 +8398,25 @@
         <v>11</v>
       </c>
       <c r="E153" s="28"/>
-      <c r="F153" s="87"/>
-      <c r="G153" s="105" t="s">
+      <c r="F153" s="82"/>
+      <c r="G153" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H153" s="106"/>
-      <c r="I153" s="106"/>
-      <c r="J153" s="107"/>
-      <c r="K153" s="105" t="s">
+      <c r="H153" s="118"/>
+      <c r="I153" s="118"/>
+      <c r="J153" s="119"/>
+      <c r="K153" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="L153" s="106"/>
-      <c r="M153" s="106"/>
-      <c r="N153" s="107"/>
-      <c r="O153" s="119" t="s">
+      <c r="L153" s="118"/>
+      <c r="M153" s="118"/>
+      <c r="N153" s="119"/>
+      <c r="O153" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="P153" s="120"/>
-      <c r="Q153" s="120"/>
-      <c r="R153" s="121"/>
+      <c r="P153" s="106"/>
+      <c r="Q153" s="106"/>
+      <c r="R153" s="107"/>
     </row>
     <row r="154" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B154" s="47" t="s">
@@ -7328,19 +8429,19 @@
         <v>11</v>
       </c>
       <c r="E154" s="1"/>
-      <c r="F154" s="88"/>
-      <c r="G154" s="108"/>
-      <c r="H154" s="109"/>
-      <c r="I154" s="109"/>
-      <c r="J154" s="110"/>
-      <c r="K154" s="108"/>
-      <c r="L154" s="109"/>
-      <c r="M154" s="109"/>
-      <c r="N154" s="110"/>
-      <c r="O154" s="122"/>
-      <c r="P154" s="123"/>
-      <c r="Q154" s="123"/>
-      <c r="R154" s="118"/>
+      <c r="F154" s="83"/>
+      <c r="G154" s="120"/>
+      <c r="H154" s="121"/>
+      <c r="I154" s="121"/>
+      <c r="J154" s="122"/>
+      <c r="K154" s="120"/>
+      <c r="L154" s="121"/>
+      <c r="M154" s="121"/>
+      <c r="N154" s="122"/>
+      <c r="O154" s="108"/>
+      <c r="P154" s="109"/>
+      <c r="Q154" s="109"/>
+      <c r="R154" s="110"/>
     </row>
     <row r="155" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B155" s="47" t="s">
@@ -7353,19 +8454,19 @@
         <v>11</v>
       </c>
       <c r="E155" s="1"/>
-      <c r="F155" s="88"/>
-      <c r="G155" s="108"/>
-      <c r="H155" s="109"/>
-      <c r="I155" s="109"/>
-      <c r="J155" s="110"/>
-      <c r="K155" s="108"/>
-      <c r="L155" s="109"/>
-      <c r="M155" s="109"/>
-      <c r="N155" s="110"/>
-      <c r="O155" s="122"/>
-      <c r="P155" s="123"/>
-      <c r="Q155" s="123"/>
-      <c r="R155" s="118"/>
+      <c r="F155" s="83"/>
+      <c r="G155" s="120"/>
+      <c r="H155" s="121"/>
+      <c r="I155" s="121"/>
+      <c r="J155" s="122"/>
+      <c r="K155" s="120"/>
+      <c r="L155" s="121"/>
+      <c r="M155" s="121"/>
+      <c r="N155" s="122"/>
+      <c r="O155" s="108"/>
+      <c r="P155" s="109"/>
+      <c r="Q155" s="109"/>
+      <c r="R155" s="110"/>
     </row>
     <row r="156" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B156" s="47" t="s">
@@ -7378,19 +8479,19 @@
         <v>11</v>
       </c>
       <c r="E156" s="1"/>
-      <c r="F156" s="88"/>
-      <c r="G156" s="108"/>
-      <c r="H156" s="109"/>
-      <c r="I156" s="109"/>
-      <c r="J156" s="110"/>
-      <c r="K156" s="108"/>
-      <c r="L156" s="109"/>
-      <c r="M156" s="109"/>
-      <c r="N156" s="110"/>
-      <c r="O156" s="122"/>
-      <c r="P156" s="123"/>
-      <c r="Q156" s="123"/>
-      <c r="R156" s="118"/>
+      <c r="F156" s="83"/>
+      <c r="G156" s="120"/>
+      <c r="H156" s="121"/>
+      <c r="I156" s="121"/>
+      <c r="J156" s="122"/>
+      <c r="K156" s="120"/>
+      <c r="L156" s="121"/>
+      <c r="M156" s="121"/>
+      <c r="N156" s="122"/>
+      <c r="O156" s="108"/>
+      <c r="P156" s="109"/>
+      <c r="Q156" s="109"/>
+      <c r="R156" s="110"/>
     </row>
     <row r="157" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B157" s="48" t="s">
@@ -7403,91 +8504,91 @@
         <v>11</v>
       </c>
       <c r="E157" s="14"/>
-      <c r="F157" s="89"/>
-      <c r="G157" s="111"/>
-      <c r="H157" s="112"/>
-      <c r="I157" s="112"/>
-      <c r="J157" s="113"/>
-      <c r="K157" s="111"/>
-      <c r="L157" s="112"/>
-      <c r="M157" s="112"/>
-      <c r="N157" s="113"/>
-      <c r="O157" s="124"/>
-      <c r="P157" s="125"/>
-      <c r="Q157" s="125"/>
-      <c r="R157" s="126"/>
+      <c r="F157" s="84"/>
+      <c r="G157" s="123"/>
+      <c r="H157" s="124"/>
+      <c r="I157" s="124"/>
+      <c r="J157" s="125"/>
+      <c r="K157" s="123"/>
+      <c r="L157" s="124"/>
+      <c r="M157" s="124"/>
+      <c r="N157" s="125"/>
+      <c r="O157" s="111"/>
+      <c r="P157" s="112"/>
+      <c r="Q157" s="112"/>
+      <c r="R157" s="113"/>
     </row>
     <row r="163" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B163" s="129" t="s">
+      <c r="B163" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="C163" s="130"/>
-      <c r="D163" s="130"/>
-      <c r="E163" s="130"/>
-      <c r="F163" s="130"/>
-      <c r="G163" s="130"/>
-      <c r="H163" s="130"/>
-      <c r="I163" s="130"/>
-      <c r="J163" s="130"/>
-      <c r="K163" s="130"/>
-      <c r="L163" s="130"/>
-      <c r="M163" s="130"/>
-      <c r="N163" s="130"/>
-      <c r="O163" s="130"/>
-      <c r="P163" s="130"/>
-      <c r="Q163" s="130"/>
-      <c r="R163" s="131"/>
+      <c r="C163" s="128"/>
+      <c r="D163" s="128"/>
+      <c r="E163" s="128"/>
+      <c r="F163" s="128"/>
+      <c r="G163" s="128"/>
+      <c r="H163" s="128"/>
+      <c r="I163" s="128"/>
+      <c r="J163" s="128"/>
+      <c r="K163" s="128"/>
+      <c r="L163" s="128"/>
+      <c r="M163" s="128"/>
+      <c r="N163" s="128"/>
+      <c r="O163" s="128"/>
+      <c r="P163" s="128"/>
+      <c r="Q163" s="128"/>
+      <c r="R163" s="129"/>
     </row>
     <row r="164" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B164" s="132"/>
-      <c r="C164" s="133"/>
-      <c r="D164" s="133"/>
-      <c r="E164" s="133"/>
-      <c r="F164" s="133"/>
-      <c r="G164" s="133"/>
-      <c r="H164" s="133"/>
-      <c r="I164" s="133"/>
-      <c r="J164" s="133"/>
-      <c r="K164" s="133"/>
-      <c r="L164" s="133"/>
-      <c r="M164" s="133"/>
-      <c r="N164" s="133"/>
-      <c r="O164" s="133"/>
-      <c r="P164" s="133"/>
-      <c r="Q164" s="133"/>
-      <c r="R164" s="134"/>
+      <c r="B164" s="130"/>
+      <c r="C164" s="131"/>
+      <c r="D164" s="131"/>
+      <c r="E164" s="131"/>
+      <c r="F164" s="131"/>
+      <c r="G164" s="131"/>
+      <c r="H164" s="131"/>
+      <c r="I164" s="131"/>
+      <c r="J164" s="131"/>
+      <c r="K164" s="131"/>
+      <c r="L164" s="131"/>
+      <c r="M164" s="131"/>
+      <c r="N164" s="131"/>
+      <c r="O164" s="131"/>
+      <c r="P164" s="131"/>
+      <c r="Q164" s="131"/>
+      <c r="R164" s="132"/>
     </row>
     <row r="165" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B165" s="77" t="s">
+      <c r="B165" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C165" s="79" t="s">
+      <c r="C165" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D165" s="80"/>
-      <c r="E165" s="80"/>
-      <c r="F165" s="81"/>
-      <c r="G165" s="79" t="s">
+      <c r="D165" s="74"/>
+      <c r="E165" s="74"/>
+      <c r="F165" s="93"/>
+      <c r="G165" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H165" s="80"/>
-      <c r="I165" s="80"/>
-      <c r="J165" s="90"/>
-      <c r="K165" s="127" t="s">
+      <c r="H165" s="74"/>
+      <c r="I165" s="74"/>
+      <c r="J165" s="75"/>
+      <c r="K165" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="L165" s="80"/>
-      <c r="M165" s="80"/>
-      <c r="N165" s="81"/>
-      <c r="O165" s="79" t="s">
+      <c r="L165" s="74"/>
+      <c r="M165" s="74"/>
+      <c r="N165" s="93"/>
+      <c r="O165" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="P165" s="80"/>
-      <c r="Q165" s="80"/>
-      <c r="R165" s="90"/>
+      <c r="P165" s="74"/>
+      <c r="Q165" s="74"/>
+      <c r="R165" s="75"/>
     </row>
     <row r="166" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B166" s="135"/>
+      <c r="B166" s="133"/>
       <c r="C166" s="25" t="s">
         <v>6</v>
       </c>
@@ -7546,25 +8647,25 @@
         <v>11</v>
       </c>
       <c r="E167" s="28"/>
-      <c r="F167" s="87"/>
-      <c r="G167" s="105" t="s">
+      <c r="F167" s="82"/>
+      <c r="G167" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H167" s="106"/>
-      <c r="I167" s="106"/>
-      <c r="J167" s="107"/>
+      <c r="H167" s="118"/>
+      <c r="I167" s="118"/>
+      <c r="J167" s="119"/>
       <c r="K167" s="29"/>
       <c r="L167" s="28" t="s">
         <v>11</v>
       </c>
       <c r="M167" s="28"/>
-      <c r="N167" s="87"/>
-      <c r="O167" s="119" t="s">
+      <c r="N167" s="82"/>
+      <c r="O167" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="P167" s="120"/>
-      <c r="Q167" s="120"/>
-      <c r="R167" s="121"/>
+      <c r="P167" s="106"/>
+      <c r="Q167" s="106"/>
+      <c r="R167" s="107"/>
     </row>
     <row r="168" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B168" s="32" t="s">
@@ -7579,21 +8680,21 @@
       <c r="E168" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F168" s="88"/>
-      <c r="G168" s="108"/>
-      <c r="H168" s="109"/>
-      <c r="I168" s="109"/>
-      <c r="J168" s="110"/>
+      <c r="F168" s="83"/>
+      <c r="G168" s="120"/>
+      <c r="H168" s="121"/>
+      <c r="I168" s="121"/>
+      <c r="J168" s="122"/>
       <c r="K168" s="6"/>
       <c r="L168" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M168" s="1"/>
-      <c r="N168" s="88"/>
-      <c r="O168" s="122"/>
-      <c r="P168" s="123"/>
-      <c r="Q168" s="123"/>
-      <c r="R168" s="118"/>
+      <c r="N168" s="83"/>
+      <c r="O168" s="108"/>
+      <c r="P168" s="109"/>
+      <c r="Q168" s="109"/>
+      <c r="R168" s="110"/>
     </row>
     <row r="169" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B169" s="32" t="s">
@@ -7608,21 +8709,21 @@
       <c r="E169" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F169" s="88"/>
-      <c r="G169" s="108"/>
-      <c r="H169" s="109"/>
-      <c r="I169" s="109"/>
-      <c r="J169" s="110"/>
+      <c r="F169" s="83"/>
+      <c r="G169" s="120"/>
+      <c r="H169" s="121"/>
+      <c r="I169" s="121"/>
+      <c r="J169" s="122"/>
       <c r="K169" s="6"/>
       <c r="L169" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M169" s="1"/>
-      <c r="N169" s="88"/>
-      <c r="O169" s="122"/>
-      <c r="P169" s="123"/>
-      <c r="Q169" s="123"/>
-      <c r="R169" s="118"/>
+      <c r="N169" s="83"/>
+      <c r="O169" s="108"/>
+      <c r="P169" s="109"/>
+      <c r="Q169" s="109"/>
+      <c r="R169" s="110"/>
     </row>
     <row r="170" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B170" s="32" t="s">
@@ -7635,21 +8736,21 @@
         <v>11</v>
       </c>
       <c r="E170" s="1"/>
-      <c r="F170" s="88"/>
-      <c r="G170" s="108"/>
-      <c r="H170" s="109"/>
-      <c r="I170" s="109"/>
-      <c r="J170" s="110"/>
+      <c r="F170" s="83"/>
+      <c r="G170" s="120"/>
+      <c r="H170" s="121"/>
+      <c r="I170" s="121"/>
+      <c r="J170" s="122"/>
       <c r="K170" s="6"/>
       <c r="L170" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M170" s="1"/>
-      <c r="N170" s="88"/>
-      <c r="O170" s="122"/>
-      <c r="P170" s="123"/>
-      <c r="Q170" s="123"/>
-      <c r="R170" s="118"/>
+      <c r="N170" s="83"/>
+      <c r="O170" s="108"/>
+      <c r="P170" s="109"/>
+      <c r="Q170" s="109"/>
+      <c r="R170" s="110"/>
     </row>
     <row r="171" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B171" s="32" t="s">
@@ -7664,21 +8765,21 @@
       <c r="E171" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F171" s="88"/>
-      <c r="G171" s="108"/>
-      <c r="H171" s="109"/>
-      <c r="I171" s="109"/>
-      <c r="J171" s="110"/>
+      <c r="F171" s="83"/>
+      <c r="G171" s="120"/>
+      <c r="H171" s="121"/>
+      <c r="I171" s="121"/>
+      <c r="J171" s="122"/>
       <c r="K171" s="6"/>
       <c r="L171" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M171" s="1"/>
-      <c r="N171" s="88"/>
-      <c r="O171" s="122"/>
-      <c r="P171" s="123"/>
-      <c r="Q171" s="123"/>
-      <c r="R171" s="118"/>
+      <c r="N171" s="83"/>
+      <c r="O171" s="108"/>
+      <c r="P171" s="109"/>
+      <c r="Q171" s="109"/>
+      <c r="R171" s="110"/>
     </row>
     <row r="172" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B172" s="32" t="s">
@@ -7693,21 +8794,21 @@
       <c r="E172" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F172" s="88"/>
-      <c r="G172" s="108"/>
-      <c r="H172" s="109"/>
-      <c r="I172" s="109"/>
-      <c r="J172" s="110"/>
+      <c r="F172" s="83"/>
+      <c r="G172" s="120"/>
+      <c r="H172" s="121"/>
+      <c r="I172" s="121"/>
+      <c r="J172" s="122"/>
       <c r="K172" s="6"/>
       <c r="L172" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M172" s="1"/>
-      <c r="N172" s="88"/>
-      <c r="O172" s="122"/>
-      <c r="P172" s="123"/>
-      <c r="Q172" s="123"/>
-      <c r="R172" s="118"/>
+      <c r="N172" s="83"/>
+      <c r="O172" s="108"/>
+      <c r="P172" s="109"/>
+      <c r="Q172" s="109"/>
+      <c r="R172" s="110"/>
     </row>
     <row r="173" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B173" s="32" t="s">
@@ -7722,11 +8823,11 @@
       <c r="E173" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F173" s="88"/>
-      <c r="G173" s="108"/>
-      <c r="H173" s="109"/>
-      <c r="I173" s="109"/>
-      <c r="J173" s="110"/>
+      <c r="F173" s="83"/>
+      <c r="G173" s="120"/>
+      <c r="H173" s="121"/>
+      <c r="I173" s="121"/>
+      <c r="J173" s="122"/>
       <c r="K173" s="6"/>
       <c r="L173" s="1" t="s">
         <v>11</v>
@@ -7734,11 +8835,11 @@
       <c r="M173" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N173" s="88"/>
-      <c r="O173" s="122"/>
-      <c r="P173" s="123"/>
-      <c r="Q173" s="123"/>
-      <c r="R173" s="118"/>
+      <c r="N173" s="83"/>
+      <c r="O173" s="108"/>
+      <c r="P173" s="109"/>
+      <c r="Q173" s="109"/>
+      <c r="R173" s="110"/>
     </row>
     <row r="174" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B174" s="32" t="s">
@@ -7751,21 +8852,21 @@
         <v>11</v>
       </c>
       <c r="E174" s="1"/>
-      <c r="F174" s="88"/>
-      <c r="G174" s="108"/>
-      <c r="H174" s="109"/>
-      <c r="I174" s="109"/>
-      <c r="J174" s="110"/>
+      <c r="F174" s="83"/>
+      <c r="G174" s="120"/>
+      <c r="H174" s="121"/>
+      <c r="I174" s="121"/>
+      <c r="J174" s="122"/>
       <c r="K174" s="6"/>
       <c r="L174" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M174" s="1"/>
-      <c r="N174" s="88"/>
-      <c r="O174" s="122"/>
-      <c r="P174" s="123"/>
-      <c r="Q174" s="123"/>
-      <c r="R174" s="118"/>
+      <c r="N174" s="83"/>
+      <c r="O174" s="108"/>
+      <c r="P174" s="109"/>
+      <c r="Q174" s="109"/>
+      <c r="R174" s="110"/>
     </row>
     <row r="175" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B175" s="33" t="s">
@@ -7780,93 +8881,93 @@
       <c r="E175" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F175" s="89"/>
-      <c r="G175" s="111"/>
-      <c r="H175" s="112"/>
-      <c r="I175" s="112"/>
-      <c r="J175" s="113"/>
+      <c r="F175" s="84"/>
+      <c r="G175" s="123"/>
+      <c r="H175" s="124"/>
+      <c r="I175" s="124"/>
+      <c r="J175" s="125"/>
       <c r="K175" s="16"/>
       <c r="L175" s="14" t="s">
         <v>11</v>
       </c>
       <c r="M175" s="14"/>
-      <c r="N175" s="89"/>
-      <c r="O175" s="124"/>
-      <c r="P175" s="125"/>
-      <c r="Q175" s="125"/>
-      <c r="R175" s="126"/>
+      <c r="N175" s="84"/>
+      <c r="O175" s="111"/>
+      <c r="P175" s="112"/>
+      <c r="Q175" s="112"/>
+      <c r="R175" s="113"/>
     </row>
     <row r="180" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B180" s="128" t="s">
+      <c r="B180" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="C180" s="72"/>
-      <c r="D180" s="72"/>
-      <c r="E180" s="72"/>
-      <c r="F180" s="72"/>
-      <c r="G180" s="72"/>
-      <c r="H180" s="72"/>
-      <c r="I180" s="72"/>
-      <c r="J180" s="72"/>
-      <c r="K180" s="72"/>
-      <c r="L180" s="72"/>
-      <c r="M180" s="72"/>
-      <c r="N180" s="72"/>
-      <c r="O180" s="72"/>
-      <c r="P180" s="72"/>
-      <c r="Q180" s="72"/>
-      <c r="R180" s="73"/>
+      <c r="C180" s="88"/>
+      <c r="D180" s="88"/>
+      <c r="E180" s="88"/>
+      <c r="F180" s="88"/>
+      <c r="G180" s="88"/>
+      <c r="H180" s="88"/>
+      <c r="I180" s="88"/>
+      <c r="J180" s="88"/>
+      <c r="K180" s="88"/>
+      <c r="L180" s="88"/>
+      <c r="M180" s="88"/>
+      <c r="N180" s="88"/>
+      <c r="O180" s="88"/>
+      <c r="P180" s="88"/>
+      <c r="Q180" s="88"/>
+      <c r="R180" s="89"/>
     </row>
     <row r="181" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B181" s="74"/>
-      <c r="C181" s="75"/>
-      <c r="D181" s="75"/>
-      <c r="E181" s="75"/>
-      <c r="F181" s="75"/>
-      <c r="G181" s="75"/>
-      <c r="H181" s="75"/>
-      <c r="I181" s="75"/>
-      <c r="J181" s="75"/>
-      <c r="K181" s="75"/>
-      <c r="L181" s="75"/>
-      <c r="M181" s="75"/>
-      <c r="N181" s="75"/>
-      <c r="O181" s="75"/>
-      <c r="P181" s="75"/>
-      <c r="Q181" s="75"/>
-      <c r="R181" s="76"/>
+      <c r="B181" s="90"/>
+      <c r="C181" s="91"/>
+      <c r="D181" s="91"/>
+      <c r="E181" s="91"/>
+      <c r="F181" s="91"/>
+      <c r="G181" s="91"/>
+      <c r="H181" s="91"/>
+      <c r="I181" s="91"/>
+      <c r="J181" s="91"/>
+      <c r="K181" s="91"/>
+      <c r="L181" s="91"/>
+      <c r="M181" s="91"/>
+      <c r="N181" s="91"/>
+      <c r="O181" s="91"/>
+      <c r="P181" s="91"/>
+      <c r="Q181" s="91"/>
+      <c r="R181" s="92"/>
     </row>
     <row r="182" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B182" s="136" t="s">
+      <c r="B182" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C182" s="77" t="s">
+      <c r="C182" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D182" s="82"/>
-      <c r="E182" s="82"/>
-      <c r="F182" s="83"/>
-      <c r="G182" s="77" t="s">
+      <c r="D182" s="94"/>
+      <c r="E182" s="94"/>
+      <c r="F182" s="95"/>
+      <c r="G182" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H182" s="82"/>
-      <c r="I182" s="82"/>
-      <c r="J182" s="83"/>
-      <c r="K182" s="77" t="s">
+      <c r="H182" s="94"/>
+      <c r="I182" s="94"/>
+      <c r="J182" s="95"/>
+      <c r="K182" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="L182" s="82"/>
-      <c r="M182" s="82"/>
-      <c r="N182" s="83"/>
-      <c r="O182" s="77" t="s">
+      <c r="L182" s="94"/>
+      <c r="M182" s="94"/>
+      <c r="N182" s="95"/>
+      <c r="O182" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="P182" s="82"/>
-      <c r="Q182" s="82"/>
-      <c r="R182" s="83"/>
+      <c r="P182" s="94"/>
+      <c r="Q182" s="94"/>
+      <c r="R182" s="95"/>
     </row>
     <row r="183" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B183" s="138"/>
+      <c r="B183" s="126"/>
       <c r="C183" s="25" t="s">
         <v>6</v>
       </c>
@@ -7925,25 +9026,25 @@
         <v>11</v>
       </c>
       <c r="E184" s="28"/>
-      <c r="F184" s="87"/>
-      <c r="G184" s="105" t="s">
+      <c r="F184" s="82"/>
+      <c r="G184" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H184" s="120"/>
-      <c r="I184" s="120"/>
-      <c r="J184" s="121"/>
-      <c r="K184" s="105" t="s">
+      <c r="H184" s="106"/>
+      <c r="I184" s="106"/>
+      <c r="J184" s="107"/>
+      <c r="K184" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="L184" s="120"/>
-      <c r="M184" s="120"/>
-      <c r="N184" s="121"/>
-      <c r="O184" s="119" t="s">
+      <c r="L184" s="106"/>
+      <c r="M184" s="106"/>
+      <c r="N184" s="107"/>
+      <c r="O184" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="P184" s="120"/>
-      <c r="Q184" s="120"/>
-      <c r="R184" s="121"/>
+      <c r="P184" s="106"/>
+      <c r="Q184" s="106"/>
+      <c r="R184" s="107"/>
     </row>
     <row r="185" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B185" s="36" t="s">
@@ -7956,19 +9057,19 @@
         <v>11</v>
       </c>
       <c r="E185" s="1"/>
-      <c r="F185" s="88"/>
-      <c r="G185" s="122"/>
-      <c r="H185" s="123"/>
-      <c r="I185" s="123"/>
-      <c r="J185" s="118"/>
-      <c r="K185" s="122"/>
-      <c r="L185" s="123"/>
-      <c r="M185" s="123"/>
-      <c r="N185" s="118"/>
-      <c r="O185" s="122"/>
-      <c r="P185" s="123"/>
-      <c r="Q185" s="123"/>
-      <c r="R185" s="118"/>
+      <c r="F185" s="83"/>
+      <c r="G185" s="108"/>
+      <c r="H185" s="109"/>
+      <c r="I185" s="109"/>
+      <c r="J185" s="110"/>
+      <c r="K185" s="108"/>
+      <c r="L185" s="109"/>
+      <c r="M185" s="109"/>
+      <c r="N185" s="110"/>
+      <c r="O185" s="108"/>
+      <c r="P185" s="109"/>
+      <c r="Q185" s="109"/>
+      <c r="R185" s="110"/>
     </row>
     <row r="186" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B186" s="37" t="s">
@@ -7981,91 +9082,91 @@
         <v>11</v>
       </c>
       <c r="E186" s="14"/>
-      <c r="F186" s="89"/>
-      <c r="G186" s="124"/>
-      <c r="H186" s="125"/>
-      <c r="I186" s="125"/>
-      <c r="J186" s="126"/>
-      <c r="K186" s="124"/>
-      <c r="L186" s="125"/>
-      <c r="M186" s="125"/>
-      <c r="N186" s="126"/>
-      <c r="O186" s="124"/>
-      <c r="P186" s="125"/>
-      <c r="Q186" s="125"/>
-      <c r="R186" s="126"/>
+      <c r="F186" s="84"/>
+      <c r="G186" s="111"/>
+      <c r="H186" s="112"/>
+      <c r="I186" s="112"/>
+      <c r="J186" s="113"/>
+      <c r="K186" s="111"/>
+      <c r="L186" s="112"/>
+      <c r="M186" s="112"/>
+      <c r="N186" s="113"/>
+      <c r="O186" s="111"/>
+      <c r="P186" s="112"/>
+      <c r="Q186" s="112"/>
+      <c r="R186" s="113"/>
     </row>
     <row r="190" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B190" s="129" t="s">
+      <c r="B190" s="127" t="s">
         <v>76</v>
       </c>
-      <c r="C190" s="130"/>
-      <c r="D190" s="130"/>
-      <c r="E190" s="130"/>
-      <c r="F190" s="130"/>
-      <c r="G190" s="130"/>
-      <c r="H190" s="130"/>
-      <c r="I190" s="130"/>
-      <c r="J190" s="130"/>
-      <c r="K190" s="130"/>
-      <c r="L190" s="130"/>
-      <c r="M190" s="130"/>
-      <c r="N190" s="130"/>
-      <c r="O190" s="130"/>
-      <c r="P190" s="130"/>
-      <c r="Q190" s="130"/>
-      <c r="R190" s="131"/>
+      <c r="C190" s="128"/>
+      <c r="D190" s="128"/>
+      <c r="E190" s="128"/>
+      <c r="F190" s="128"/>
+      <c r="G190" s="128"/>
+      <c r="H190" s="128"/>
+      <c r="I190" s="128"/>
+      <c r="J190" s="128"/>
+      <c r="K190" s="128"/>
+      <c r="L190" s="128"/>
+      <c r="M190" s="128"/>
+      <c r="N190" s="128"/>
+      <c r="O190" s="128"/>
+      <c r="P190" s="128"/>
+      <c r="Q190" s="128"/>
+      <c r="R190" s="129"/>
     </row>
     <row r="191" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B191" s="132"/>
-      <c r="C191" s="133"/>
-      <c r="D191" s="133"/>
-      <c r="E191" s="133"/>
-      <c r="F191" s="133"/>
-      <c r="G191" s="133"/>
-      <c r="H191" s="133"/>
-      <c r="I191" s="133"/>
-      <c r="J191" s="133"/>
-      <c r="K191" s="133"/>
-      <c r="L191" s="133"/>
-      <c r="M191" s="133"/>
-      <c r="N191" s="133"/>
-      <c r="O191" s="133"/>
-      <c r="P191" s="133"/>
-      <c r="Q191" s="133"/>
-      <c r="R191" s="134"/>
+      <c r="B191" s="130"/>
+      <c r="C191" s="131"/>
+      <c r="D191" s="131"/>
+      <c r="E191" s="131"/>
+      <c r="F191" s="131"/>
+      <c r="G191" s="131"/>
+      <c r="H191" s="131"/>
+      <c r="I191" s="131"/>
+      <c r="J191" s="131"/>
+      <c r="K191" s="131"/>
+      <c r="L191" s="131"/>
+      <c r="M191" s="131"/>
+      <c r="N191" s="131"/>
+      <c r="O191" s="131"/>
+      <c r="P191" s="131"/>
+      <c r="Q191" s="131"/>
+      <c r="R191" s="132"/>
     </row>
     <row r="192" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B192" s="77" t="s">
+      <c r="B192" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C192" s="79" t="s">
+      <c r="C192" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D192" s="80"/>
-      <c r="E192" s="80"/>
-      <c r="F192" s="81"/>
-      <c r="G192" s="79" t="s">
+      <c r="D192" s="74"/>
+      <c r="E192" s="74"/>
+      <c r="F192" s="93"/>
+      <c r="G192" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H192" s="80"/>
-      <c r="I192" s="80"/>
-      <c r="J192" s="90"/>
-      <c r="K192" s="127" t="s">
+      <c r="H192" s="74"/>
+      <c r="I192" s="74"/>
+      <c r="J192" s="75"/>
+      <c r="K192" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="L192" s="80"/>
-      <c r="M192" s="80"/>
-      <c r="N192" s="81"/>
-      <c r="O192" s="79" t="s">
+      <c r="L192" s="74"/>
+      <c r="M192" s="74"/>
+      <c r="N192" s="93"/>
+      <c r="O192" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="P192" s="80"/>
-      <c r="Q192" s="80"/>
-      <c r="R192" s="90"/>
+      <c r="P192" s="74"/>
+      <c r="Q192" s="74"/>
+      <c r="R192" s="75"/>
     </row>
     <row r="193" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B193" s="135"/>
+      <c r="B193" s="133"/>
       <c r="C193" s="25" t="s">
         <v>6</v>
       </c>
@@ -8124,25 +9225,25 @@
         <v>11</v>
       </c>
       <c r="E194" s="28"/>
-      <c r="F194" s="87"/>
-      <c r="G194" s="105" t="s">
+      <c r="F194" s="82"/>
+      <c r="G194" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H194" s="106"/>
-      <c r="I194" s="106"/>
-      <c r="J194" s="107"/>
-      <c r="K194" s="105" t="s">
+      <c r="H194" s="118"/>
+      <c r="I194" s="118"/>
+      <c r="J194" s="119"/>
+      <c r="K194" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="L194" s="106"/>
-      <c r="M194" s="106"/>
-      <c r="N194" s="107"/>
-      <c r="O194" s="119" t="s">
+      <c r="L194" s="118"/>
+      <c r="M194" s="118"/>
+      <c r="N194" s="119"/>
+      <c r="O194" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="P194" s="120"/>
-      <c r="Q194" s="120"/>
-      <c r="R194" s="121"/>
+      <c r="P194" s="106"/>
+      <c r="Q194" s="106"/>
+      <c r="R194" s="107"/>
     </row>
     <row r="195" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B195" s="46" t="s">
@@ -8155,19 +9256,19 @@
         <v>11</v>
       </c>
       <c r="E195" s="1"/>
-      <c r="F195" s="88"/>
-      <c r="G195" s="108"/>
-      <c r="H195" s="109"/>
-      <c r="I195" s="109"/>
-      <c r="J195" s="110"/>
-      <c r="K195" s="108"/>
-      <c r="L195" s="109"/>
-      <c r="M195" s="109"/>
-      <c r="N195" s="110"/>
-      <c r="O195" s="122"/>
-      <c r="P195" s="123"/>
-      <c r="Q195" s="123"/>
-      <c r="R195" s="118"/>
+      <c r="F195" s="83"/>
+      <c r="G195" s="120"/>
+      <c r="H195" s="121"/>
+      <c r="I195" s="121"/>
+      <c r="J195" s="122"/>
+      <c r="K195" s="120"/>
+      <c r="L195" s="121"/>
+      <c r="M195" s="121"/>
+      <c r="N195" s="122"/>
+      <c r="O195" s="108"/>
+      <c r="P195" s="109"/>
+      <c r="Q195" s="109"/>
+      <c r="R195" s="110"/>
     </row>
     <row r="196" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B196" s="46" t="s">
@@ -8180,19 +9281,19 @@
         <v>11</v>
       </c>
       <c r="E196" s="1"/>
-      <c r="F196" s="88"/>
-      <c r="G196" s="108"/>
-      <c r="H196" s="109"/>
-      <c r="I196" s="109"/>
-      <c r="J196" s="110"/>
-      <c r="K196" s="108"/>
-      <c r="L196" s="109"/>
-      <c r="M196" s="109"/>
-      <c r="N196" s="110"/>
-      <c r="O196" s="122"/>
-      <c r="P196" s="123"/>
-      <c r="Q196" s="123"/>
-      <c r="R196" s="118"/>
+      <c r="F196" s="83"/>
+      <c r="G196" s="120"/>
+      <c r="H196" s="121"/>
+      <c r="I196" s="121"/>
+      <c r="J196" s="122"/>
+      <c r="K196" s="120"/>
+      <c r="L196" s="121"/>
+      <c r="M196" s="121"/>
+      <c r="N196" s="122"/>
+      <c r="O196" s="108"/>
+      <c r="P196" s="109"/>
+      <c r="Q196" s="109"/>
+      <c r="R196" s="110"/>
     </row>
     <row r="197" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B197" s="46" t="s">
@@ -8205,19 +9306,19 @@
         <v>11</v>
       </c>
       <c r="E197" s="1"/>
-      <c r="F197" s="88"/>
-      <c r="G197" s="108"/>
-      <c r="H197" s="109"/>
-      <c r="I197" s="109"/>
-      <c r="J197" s="110"/>
-      <c r="K197" s="108"/>
-      <c r="L197" s="109"/>
-      <c r="M197" s="109"/>
-      <c r="N197" s="110"/>
-      <c r="O197" s="122"/>
-      <c r="P197" s="123"/>
-      <c r="Q197" s="123"/>
-      <c r="R197" s="118"/>
+      <c r="F197" s="83"/>
+      <c r="G197" s="120"/>
+      <c r="H197" s="121"/>
+      <c r="I197" s="121"/>
+      <c r="J197" s="122"/>
+      <c r="K197" s="120"/>
+      <c r="L197" s="121"/>
+      <c r="M197" s="121"/>
+      <c r="N197" s="122"/>
+      <c r="O197" s="108"/>
+      <c r="P197" s="109"/>
+      <c r="Q197" s="109"/>
+      <c r="R197" s="110"/>
     </row>
     <row r="198" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B198" s="46" t="s">
@@ -8232,19 +9333,19 @@
       <c r="E198" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F198" s="88"/>
-      <c r="G198" s="108"/>
-      <c r="H198" s="109"/>
-      <c r="I198" s="109"/>
-      <c r="J198" s="110"/>
-      <c r="K198" s="108"/>
-      <c r="L198" s="109"/>
-      <c r="M198" s="109"/>
-      <c r="N198" s="110"/>
-      <c r="O198" s="122"/>
-      <c r="P198" s="123"/>
-      <c r="Q198" s="123"/>
-      <c r="R198" s="118"/>
+      <c r="F198" s="83"/>
+      <c r="G198" s="120"/>
+      <c r="H198" s="121"/>
+      <c r="I198" s="121"/>
+      <c r="J198" s="122"/>
+      <c r="K198" s="120"/>
+      <c r="L198" s="121"/>
+      <c r="M198" s="121"/>
+      <c r="N198" s="122"/>
+      <c r="O198" s="108"/>
+      <c r="P198" s="109"/>
+      <c r="Q198" s="109"/>
+      <c r="R198" s="110"/>
     </row>
     <row r="199" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B199" s="46" t="s">
@@ -8257,19 +9358,19 @@
         <v>11</v>
       </c>
       <c r="E199" s="1"/>
-      <c r="F199" s="88"/>
-      <c r="G199" s="108"/>
-      <c r="H199" s="109"/>
-      <c r="I199" s="109"/>
-      <c r="J199" s="110"/>
-      <c r="K199" s="108"/>
-      <c r="L199" s="109"/>
-      <c r="M199" s="109"/>
-      <c r="N199" s="110"/>
-      <c r="O199" s="122"/>
-      <c r="P199" s="123"/>
-      <c r="Q199" s="123"/>
-      <c r="R199" s="118"/>
+      <c r="F199" s="83"/>
+      <c r="G199" s="120"/>
+      <c r="H199" s="121"/>
+      <c r="I199" s="121"/>
+      <c r="J199" s="122"/>
+      <c r="K199" s="120"/>
+      <c r="L199" s="121"/>
+      <c r="M199" s="121"/>
+      <c r="N199" s="122"/>
+      <c r="O199" s="108"/>
+      <c r="P199" s="109"/>
+      <c r="Q199" s="109"/>
+      <c r="R199" s="110"/>
     </row>
     <row r="200" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B200" s="51" t="s">
@@ -8284,91 +9385,91 @@
       <c r="E200" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F200" s="89"/>
-      <c r="G200" s="111"/>
-      <c r="H200" s="112"/>
-      <c r="I200" s="112"/>
-      <c r="J200" s="113"/>
-      <c r="K200" s="111"/>
-      <c r="L200" s="112"/>
-      <c r="M200" s="112"/>
-      <c r="N200" s="113"/>
-      <c r="O200" s="124"/>
-      <c r="P200" s="125"/>
-      <c r="Q200" s="125"/>
-      <c r="R200" s="126"/>
+      <c r="F200" s="84"/>
+      <c r="G200" s="123"/>
+      <c r="H200" s="124"/>
+      <c r="I200" s="124"/>
+      <c r="J200" s="125"/>
+      <c r="K200" s="123"/>
+      <c r="L200" s="124"/>
+      <c r="M200" s="124"/>
+      <c r="N200" s="125"/>
+      <c r="O200" s="111"/>
+      <c r="P200" s="112"/>
+      <c r="Q200" s="112"/>
+      <c r="R200" s="113"/>
     </row>
     <row r="204" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B204" s="128" t="s">
+      <c r="B204" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="C204" s="72"/>
-      <c r="D204" s="72"/>
-      <c r="E204" s="72"/>
-      <c r="F204" s="72"/>
-      <c r="G204" s="72"/>
-      <c r="H204" s="72"/>
-      <c r="I204" s="72"/>
-      <c r="J204" s="72"/>
-      <c r="K204" s="72"/>
-      <c r="L204" s="72"/>
-      <c r="M204" s="72"/>
-      <c r="N204" s="72"/>
-      <c r="O204" s="72"/>
-      <c r="P204" s="72"/>
-      <c r="Q204" s="72"/>
-      <c r="R204" s="73"/>
+      <c r="C204" s="88"/>
+      <c r="D204" s="88"/>
+      <c r="E204" s="88"/>
+      <c r="F204" s="88"/>
+      <c r="G204" s="88"/>
+      <c r="H204" s="88"/>
+      <c r="I204" s="88"/>
+      <c r="J204" s="88"/>
+      <c r="K204" s="88"/>
+      <c r="L204" s="88"/>
+      <c r="M204" s="88"/>
+      <c r="N204" s="88"/>
+      <c r="O204" s="88"/>
+      <c r="P204" s="88"/>
+      <c r="Q204" s="88"/>
+      <c r="R204" s="89"/>
     </row>
     <row r="205" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B205" s="74"/>
-      <c r="C205" s="75"/>
-      <c r="D205" s="75"/>
-      <c r="E205" s="75"/>
-      <c r="F205" s="75"/>
-      <c r="G205" s="75"/>
-      <c r="H205" s="75"/>
-      <c r="I205" s="75"/>
-      <c r="J205" s="75"/>
-      <c r="K205" s="75"/>
-      <c r="L205" s="75"/>
-      <c r="M205" s="75"/>
-      <c r="N205" s="75"/>
-      <c r="O205" s="75"/>
-      <c r="P205" s="75"/>
-      <c r="Q205" s="75"/>
-      <c r="R205" s="76"/>
+      <c r="B205" s="90"/>
+      <c r="C205" s="91"/>
+      <c r="D205" s="91"/>
+      <c r="E205" s="91"/>
+      <c r="F205" s="91"/>
+      <c r="G205" s="91"/>
+      <c r="H205" s="91"/>
+      <c r="I205" s="91"/>
+      <c r="J205" s="91"/>
+      <c r="K205" s="91"/>
+      <c r="L205" s="91"/>
+      <c r="M205" s="91"/>
+      <c r="N205" s="91"/>
+      <c r="O205" s="91"/>
+      <c r="P205" s="91"/>
+      <c r="Q205" s="91"/>
+      <c r="R205" s="92"/>
     </row>
     <row r="206" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B206" s="136" t="s">
+      <c r="B206" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C206" s="77" t="s">
+      <c r="C206" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D206" s="82"/>
-      <c r="E206" s="82"/>
-      <c r="F206" s="83"/>
-      <c r="G206" s="77" t="s">
+      <c r="D206" s="94"/>
+      <c r="E206" s="94"/>
+      <c r="F206" s="95"/>
+      <c r="G206" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H206" s="82"/>
-      <c r="I206" s="82"/>
-      <c r="J206" s="83"/>
-      <c r="K206" s="77" t="s">
+      <c r="H206" s="94"/>
+      <c r="I206" s="94"/>
+      <c r="J206" s="95"/>
+      <c r="K206" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="L206" s="82"/>
-      <c r="M206" s="82"/>
-      <c r="N206" s="83"/>
-      <c r="O206" s="77" t="s">
+      <c r="L206" s="94"/>
+      <c r="M206" s="94"/>
+      <c r="N206" s="95"/>
+      <c r="O206" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="P206" s="82"/>
-      <c r="Q206" s="82"/>
-      <c r="R206" s="83"/>
+      <c r="P206" s="94"/>
+      <c r="Q206" s="94"/>
+      <c r="R206" s="95"/>
     </row>
     <row r="207" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B207" s="137"/>
+      <c r="B207" s="116"/>
       <c r="C207" s="25" t="s">
         <v>6</v>
       </c>
@@ -8425,25 +9526,25 @@
       <c r="C208" s="29"/>
       <c r="D208" s="28"/>
       <c r="E208" s="28"/>
-      <c r="F208" s="87"/>
-      <c r="G208" s="105" t="s">
+      <c r="F208" s="82"/>
+      <c r="G208" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H208" s="106"/>
-      <c r="I208" s="106"/>
-      <c r="J208" s="107"/>
-      <c r="K208" s="105" t="s">
+      <c r="H208" s="118"/>
+      <c r="I208" s="118"/>
+      <c r="J208" s="119"/>
+      <c r="K208" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="L208" s="106"/>
-      <c r="M208" s="106"/>
-      <c r="N208" s="107"/>
-      <c r="O208" s="119" t="s">
+      <c r="L208" s="118"/>
+      <c r="M208" s="118"/>
+      <c r="N208" s="119"/>
+      <c r="O208" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="P208" s="120"/>
-      <c r="Q208" s="120"/>
-      <c r="R208" s="121"/>
+      <c r="P208" s="106"/>
+      <c r="Q208" s="106"/>
+      <c r="R208" s="107"/>
     </row>
     <row r="209" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B209" s="36" t="s">
@@ -8456,19 +9557,19 @@
         <v>11</v>
       </c>
       <c r="E209" s="1"/>
-      <c r="F209" s="88"/>
-      <c r="G209" s="108"/>
-      <c r="H209" s="109"/>
-      <c r="I209" s="109"/>
-      <c r="J209" s="110"/>
-      <c r="K209" s="108"/>
-      <c r="L209" s="109"/>
-      <c r="M209" s="109"/>
-      <c r="N209" s="110"/>
-      <c r="O209" s="122"/>
-      <c r="P209" s="123"/>
-      <c r="Q209" s="123"/>
-      <c r="R209" s="118"/>
+      <c r="F209" s="83"/>
+      <c r="G209" s="120"/>
+      <c r="H209" s="121"/>
+      <c r="I209" s="121"/>
+      <c r="J209" s="122"/>
+      <c r="K209" s="120"/>
+      <c r="L209" s="121"/>
+      <c r="M209" s="121"/>
+      <c r="N209" s="122"/>
+      <c r="O209" s="108"/>
+      <c r="P209" s="109"/>
+      <c r="Q209" s="109"/>
+      <c r="R209" s="110"/>
     </row>
     <row r="210" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B210" s="37" t="s">
@@ -8481,91 +9582,91 @@
         <v>11</v>
       </c>
       <c r="E210" s="14"/>
-      <c r="F210" s="89"/>
-      <c r="G210" s="111"/>
-      <c r="H210" s="112"/>
-      <c r="I210" s="112"/>
-      <c r="J210" s="113"/>
-      <c r="K210" s="111"/>
-      <c r="L210" s="112"/>
-      <c r="M210" s="112"/>
-      <c r="N210" s="113"/>
-      <c r="O210" s="124"/>
-      <c r="P210" s="125"/>
-      <c r="Q210" s="125"/>
-      <c r="R210" s="126"/>
+      <c r="F210" s="84"/>
+      <c r="G210" s="123"/>
+      <c r="H210" s="124"/>
+      <c r="I210" s="124"/>
+      <c r="J210" s="125"/>
+      <c r="K210" s="123"/>
+      <c r="L210" s="124"/>
+      <c r="M210" s="124"/>
+      <c r="N210" s="125"/>
+      <c r="O210" s="111"/>
+      <c r="P210" s="112"/>
+      <c r="Q210" s="112"/>
+      <c r="R210" s="113"/>
     </row>
     <row r="214" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="128" t="s">
+      <c r="B214" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="C214" s="72"/>
-      <c r="D214" s="72"/>
-      <c r="E214" s="72"/>
-      <c r="F214" s="72"/>
-      <c r="G214" s="72"/>
-      <c r="H214" s="72"/>
-      <c r="I214" s="72"/>
-      <c r="J214" s="72"/>
-      <c r="K214" s="72"/>
-      <c r="L214" s="72"/>
-      <c r="M214" s="72"/>
-      <c r="N214" s="72"/>
-      <c r="O214" s="72"/>
-      <c r="P214" s="72"/>
-      <c r="Q214" s="72"/>
-      <c r="R214" s="73"/>
+      <c r="C214" s="88"/>
+      <c r="D214" s="88"/>
+      <c r="E214" s="88"/>
+      <c r="F214" s="88"/>
+      <c r="G214" s="88"/>
+      <c r="H214" s="88"/>
+      <c r="I214" s="88"/>
+      <c r="J214" s="88"/>
+      <c r="K214" s="88"/>
+      <c r="L214" s="88"/>
+      <c r="M214" s="88"/>
+      <c r="N214" s="88"/>
+      <c r="O214" s="88"/>
+      <c r="P214" s="88"/>
+      <c r="Q214" s="88"/>
+      <c r="R214" s="89"/>
     </row>
     <row r="215" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B215" s="74"/>
-      <c r="C215" s="75"/>
-      <c r="D215" s="75"/>
-      <c r="E215" s="75"/>
-      <c r="F215" s="75"/>
-      <c r="G215" s="75"/>
-      <c r="H215" s="75"/>
-      <c r="I215" s="75"/>
-      <c r="J215" s="75"/>
-      <c r="K215" s="75"/>
-      <c r="L215" s="75"/>
-      <c r="M215" s="75"/>
-      <c r="N215" s="75"/>
-      <c r="O215" s="75"/>
-      <c r="P215" s="75"/>
-      <c r="Q215" s="75"/>
-      <c r="R215" s="76"/>
+      <c r="B215" s="90"/>
+      <c r="C215" s="91"/>
+      <c r="D215" s="91"/>
+      <c r="E215" s="91"/>
+      <c r="F215" s="91"/>
+      <c r="G215" s="91"/>
+      <c r="H215" s="91"/>
+      <c r="I215" s="91"/>
+      <c r="J215" s="91"/>
+      <c r="K215" s="91"/>
+      <c r="L215" s="91"/>
+      <c r="M215" s="91"/>
+      <c r="N215" s="91"/>
+      <c r="O215" s="91"/>
+      <c r="P215" s="91"/>
+      <c r="Q215" s="91"/>
+      <c r="R215" s="92"/>
     </row>
     <row r="216" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="136" t="s">
+      <c r="B216" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C216" s="77" t="s">
+      <c r="C216" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D216" s="82"/>
-      <c r="E216" s="82"/>
-      <c r="F216" s="83"/>
-      <c r="G216" s="77" t="s">
+      <c r="D216" s="94"/>
+      <c r="E216" s="94"/>
+      <c r="F216" s="95"/>
+      <c r="G216" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H216" s="82"/>
-      <c r="I216" s="82"/>
-      <c r="J216" s="83"/>
-      <c r="K216" s="77" t="s">
+      <c r="H216" s="94"/>
+      <c r="I216" s="94"/>
+      <c r="J216" s="95"/>
+      <c r="K216" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="L216" s="82"/>
-      <c r="M216" s="82"/>
-      <c r="N216" s="83"/>
-      <c r="O216" s="77" t="s">
+      <c r="L216" s="94"/>
+      <c r="M216" s="94"/>
+      <c r="N216" s="95"/>
+      <c r="O216" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="P216" s="82"/>
-      <c r="Q216" s="82"/>
-      <c r="R216" s="83"/>
+      <c r="P216" s="94"/>
+      <c r="Q216" s="94"/>
+      <c r="R216" s="95"/>
     </row>
     <row r="217" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="137"/>
+      <c r="B217" s="116"/>
       <c r="C217" s="25" t="s">
         <v>6</v>
       </c>
@@ -8624,25 +9725,25 @@
         <v>11</v>
       </c>
       <c r="E218" s="28"/>
-      <c r="F218" s="87"/>
-      <c r="G218" s="105" t="s">
+      <c r="F218" s="82"/>
+      <c r="G218" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H218" s="106"/>
-      <c r="I218" s="106"/>
-      <c r="J218" s="107"/>
+      <c r="H218" s="118"/>
+      <c r="I218" s="118"/>
+      <c r="J218" s="119"/>
       <c r="K218" s="49"/>
       <c r="L218" s="28" t="s">
         <v>11</v>
       </c>
       <c r="M218" s="28"/>
-      <c r="N218" s="87"/>
-      <c r="O218" s="119" t="s">
+      <c r="N218" s="82"/>
+      <c r="O218" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="P218" s="120"/>
-      <c r="Q218" s="120"/>
-      <c r="R218" s="121"/>
+      <c r="P218" s="106"/>
+      <c r="Q218" s="106"/>
+      <c r="R218" s="107"/>
     </row>
     <row r="219" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="47" t="s">
@@ -8655,21 +9756,21 @@
         <v>11</v>
       </c>
       <c r="E219" s="1"/>
-      <c r="F219" s="88"/>
-      <c r="G219" s="108"/>
-      <c r="H219" s="109"/>
-      <c r="I219" s="109"/>
-      <c r="J219" s="110"/>
+      <c r="F219" s="83"/>
+      <c r="G219" s="120"/>
+      <c r="H219" s="121"/>
+      <c r="I219" s="121"/>
+      <c r="J219" s="122"/>
       <c r="K219" s="6"/>
       <c r="L219" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M219" s="1"/>
-      <c r="N219" s="88"/>
-      <c r="O219" s="122"/>
-      <c r="P219" s="123"/>
-      <c r="Q219" s="123"/>
-      <c r="R219" s="118"/>
+      <c r="N219" s="83"/>
+      <c r="O219" s="108"/>
+      <c r="P219" s="109"/>
+      <c r="Q219" s="109"/>
+      <c r="R219" s="110"/>
     </row>
     <row r="220" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="47" t="s">
@@ -8682,21 +9783,21 @@
         <v>11</v>
       </c>
       <c r="E220" s="1"/>
-      <c r="F220" s="88"/>
-      <c r="G220" s="108"/>
-      <c r="H220" s="109"/>
-      <c r="I220" s="109"/>
-      <c r="J220" s="110"/>
+      <c r="F220" s="83"/>
+      <c r="G220" s="120"/>
+      <c r="H220" s="121"/>
+      <c r="I220" s="121"/>
+      <c r="J220" s="122"/>
       <c r="K220" s="6"/>
       <c r="L220" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M220" s="1"/>
-      <c r="N220" s="88"/>
-      <c r="O220" s="122"/>
-      <c r="P220" s="123"/>
-      <c r="Q220" s="123"/>
-      <c r="R220" s="118"/>
+      <c r="N220" s="83"/>
+      <c r="O220" s="108"/>
+      <c r="P220" s="109"/>
+      <c r="Q220" s="109"/>
+      <c r="R220" s="110"/>
     </row>
     <row r="221" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B221" s="47" t="s">
@@ -8709,21 +9810,21 @@
         <v>11</v>
       </c>
       <c r="E221" s="1"/>
-      <c r="F221" s="88"/>
-      <c r="G221" s="108"/>
-      <c r="H221" s="109"/>
-      <c r="I221" s="109"/>
-      <c r="J221" s="110"/>
+      <c r="F221" s="83"/>
+      <c r="G221" s="120"/>
+      <c r="H221" s="121"/>
+      <c r="I221" s="121"/>
+      <c r="J221" s="122"/>
       <c r="K221" s="6"/>
       <c r="L221" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M221" s="1"/>
-      <c r="N221" s="88"/>
-      <c r="O221" s="122"/>
-      <c r="P221" s="123"/>
-      <c r="Q221" s="123"/>
-      <c r="R221" s="118"/>
+      <c r="N221" s="83"/>
+      <c r="O221" s="108"/>
+      <c r="P221" s="109"/>
+      <c r="Q221" s="109"/>
+      <c r="R221" s="110"/>
     </row>
     <row r="222" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="47" t="s">
@@ -8736,21 +9837,21 @@
         <v>11</v>
       </c>
       <c r="E222" s="1"/>
-      <c r="F222" s="88"/>
-      <c r="G222" s="108"/>
-      <c r="H222" s="109"/>
-      <c r="I222" s="109"/>
-      <c r="J222" s="110"/>
+      <c r="F222" s="83"/>
+      <c r="G222" s="120"/>
+      <c r="H222" s="121"/>
+      <c r="I222" s="121"/>
+      <c r="J222" s="122"/>
       <c r="K222" s="6"/>
       <c r="L222" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M222" s="1"/>
-      <c r="N222" s="88"/>
-      <c r="O222" s="122"/>
-      <c r="P222" s="123"/>
-      <c r="Q222" s="123"/>
-      <c r="R222" s="118"/>
+      <c r="N222" s="83"/>
+      <c r="O222" s="108"/>
+      <c r="P222" s="109"/>
+      <c r="Q222" s="109"/>
+      <c r="R222" s="110"/>
     </row>
     <row r="223" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B223" s="47" t="s">
@@ -8765,21 +9866,21 @@
       <c r="E223" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F223" s="88"/>
-      <c r="G223" s="108"/>
-      <c r="H223" s="109"/>
-      <c r="I223" s="109"/>
-      <c r="J223" s="110"/>
+      <c r="F223" s="83"/>
+      <c r="G223" s="120"/>
+      <c r="H223" s="121"/>
+      <c r="I223" s="121"/>
+      <c r="J223" s="122"/>
       <c r="K223" s="6"/>
       <c r="L223" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M223" s="1"/>
-      <c r="N223" s="88"/>
-      <c r="O223" s="122"/>
-      <c r="P223" s="123"/>
-      <c r="Q223" s="123"/>
-      <c r="R223" s="118"/>
+      <c r="N223" s="83"/>
+      <c r="O223" s="108"/>
+      <c r="P223" s="109"/>
+      <c r="Q223" s="109"/>
+      <c r="R223" s="110"/>
     </row>
     <row r="224" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B224" s="48" t="s">
@@ -8794,93 +9895,93 @@
       <c r="E224" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F224" s="89"/>
-      <c r="G224" s="111"/>
-      <c r="H224" s="112"/>
-      <c r="I224" s="112"/>
-      <c r="J224" s="113"/>
+      <c r="F224" s="84"/>
+      <c r="G224" s="123"/>
+      <c r="H224" s="124"/>
+      <c r="I224" s="124"/>
+      <c r="J224" s="125"/>
       <c r="K224" s="16"/>
       <c r="L224" s="14" t="s">
         <v>11</v>
       </c>
       <c r="M224" s="14"/>
-      <c r="N224" s="89"/>
-      <c r="O224" s="124"/>
-      <c r="P224" s="125"/>
-      <c r="Q224" s="125"/>
-      <c r="R224" s="126"/>
+      <c r="N224" s="84"/>
+      <c r="O224" s="111"/>
+      <c r="P224" s="112"/>
+      <c r="Q224" s="112"/>
+      <c r="R224" s="113"/>
     </row>
     <row r="228" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="128" t="s">
+      <c r="B228" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="C228" s="72"/>
-      <c r="D228" s="72"/>
-      <c r="E228" s="72"/>
-      <c r="F228" s="72"/>
-      <c r="G228" s="72"/>
-      <c r="H228" s="72"/>
-      <c r="I228" s="72"/>
-      <c r="J228" s="72"/>
-      <c r="K228" s="72"/>
-      <c r="L228" s="72"/>
-      <c r="M228" s="72"/>
-      <c r="N228" s="72"/>
-      <c r="O228" s="72"/>
-      <c r="P228" s="72"/>
-      <c r="Q228" s="72"/>
-      <c r="R228" s="73"/>
+      <c r="C228" s="88"/>
+      <c r="D228" s="88"/>
+      <c r="E228" s="88"/>
+      <c r="F228" s="88"/>
+      <c r="G228" s="88"/>
+      <c r="H228" s="88"/>
+      <c r="I228" s="88"/>
+      <c r="J228" s="88"/>
+      <c r="K228" s="88"/>
+      <c r="L228" s="88"/>
+      <c r="M228" s="88"/>
+      <c r="N228" s="88"/>
+      <c r="O228" s="88"/>
+      <c r="P228" s="88"/>
+      <c r="Q228" s="88"/>
+      <c r="R228" s="89"/>
     </row>
     <row r="229" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B229" s="74"/>
-      <c r="C229" s="75"/>
-      <c r="D229" s="75"/>
-      <c r="E229" s="75"/>
-      <c r="F229" s="75"/>
-      <c r="G229" s="75"/>
-      <c r="H229" s="75"/>
-      <c r="I229" s="75"/>
-      <c r="J229" s="75"/>
-      <c r="K229" s="75"/>
-      <c r="L229" s="75"/>
-      <c r="M229" s="75"/>
-      <c r="N229" s="75"/>
-      <c r="O229" s="75"/>
-      <c r="P229" s="75"/>
-      <c r="Q229" s="75"/>
-      <c r="R229" s="76"/>
+      <c r="B229" s="90"/>
+      <c r="C229" s="91"/>
+      <c r="D229" s="91"/>
+      <c r="E229" s="91"/>
+      <c r="F229" s="91"/>
+      <c r="G229" s="91"/>
+      <c r="H229" s="91"/>
+      <c r="I229" s="91"/>
+      <c r="J229" s="91"/>
+      <c r="K229" s="91"/>
+      <c r="L229" s="91"/>
+      <c r="M229" s="91"/>
+      <c r="N229" s="91"/>
+      <c r="O229" s="91"/>
+      <c r="P229" s="91"/>
+      <c r="Q229" s="91"/>
+      <c r="R229" s="92"/>
     </row>
     <row r="230" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B230" s="136" t="s">
+      <c r="B230" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C230" s="77" t="s">
+      <c r="C230" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D230" s="82"/>
-      <c r="E230" s="82"/>
-      <c r="F230" s="83"/>
-      <c r="G230" s="77" t="s">
+      <c r="D230" s="94"/>
+      <c r="E230" s="94"/>
+      <c r="F230" s="95"/>
+      <c r="G230" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H230" s="82"/>
-      <c r="I230" s="82"/>
-      <c r="J230" s="83"/>
-      <c r="K230" s="77" t="s">
+      <c r="H230" s="94"/>
+      <c r="I230" s="94"/>
+      <c r="J230" s="95"/>
+      <c r="K230" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="L230" s="82"/>
-      <c r="M230" s="82"/>
-      <c r="N230" s="83"/>
-      <c r="O230" s="77" t="s">
+      <c r="L230" s="94"/>
+      <c r="M230" s="94"/>
+      <c r="N230" s="95"/>
+      <c r="O230" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="P230" s="82"/>
-      <c r="Q230" s="82"/>
-      <c r="R230" s="83"/>
+      <c r="P230" s="94"/>
+      <c r="Q230" s="94"/>
+      <c r="R230" s="95"/>
     </row>
     <row r="231" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="137"/>
+      <c r="B231" s="116"/>
       <c r="C231" s="25" t="s">
         <v>6</v>
       </c>
@@ -8937,23 +10038,23 @@
       <c r="C232" s="29"/>
       <c r="D232" s="28"/>
       <c r="E232" s="28"/>
-      <c r="F232" s="87"/>
-      <c r="G232" s="105" t="s">
+      <c r="F232" s="82"/>
+      <c r="G232" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H232" s="106"/>
-      <c r="I232" s="106"/>
-      <c r="J232" s="107"/>
+      <c r="H232" s="118"/>
+      <c r="I232" s="118"/>
+      <c r="J232" s="119"/>
       <c r="K232" s="30"/>
       <c r="L232" s="28"/>
       <c r="M232" s="28"/>
-      <c r="N232" s="87"/>
-      <c r="O232" s="119" t="s">
+      <c r="N232" s="82"/>
+      <c r="O232" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="P232" s="120"/>
-      <c r="Q232" s="120"/>
-      <c r="R232" s="121"/>
+      <c r="P232" s="106"/>
+      <c r="Q232" s="106"/>
+      <c r="R232" s="107"/>
     </row>
     <row r="233" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B233" s="36" t="s">
@@ -8966,21 +10067,21 @@
         <v>11</v>
       </c>
       <c r="E233" s="1"/>
-      <c r="F233" s="88"/>
-      <c r="G233" s="108"/>
-      <c r="H233" s="109"/>
-      <c r="I233" s="109"/>
-      <c r="J233" s="110"/>
+      <c r="F233" s="83"/>
+      <c r="G233" s="120"/>
+      <c r="H233" s="121"/>
+      <c r="I233" s="121"/>
+      <c r="J233" s="122"/>
       <c r="K233" s="8"/>
       <c r="L233" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M233" s="1"/>
-      <c r="N233" s="88"/>
-      <c r="O233" s="122"/>
-      <c r="P233" s="123"/>
-      <c r="Q233" s="123"/>
-      <c r="R233" s="118"/>
+      <c r="N233" s="83"/>
+      <c r="O233" s="108"/>
+      <c r="P233" s="109"/>
+      <c r="Q233" s="109"/>
+      <c r="R233" s="110"/>
     </row>
     <row r="234" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B234" s="36" t="s">
@@ -8993,21 +10094,21 @@
         <v>11</v>
       </c>
       <c r="E234" s="1"/>
-      <c r="F234" s="88"/>
-      <c r="G234" s="108"/>
-      <c r="H234" s="109"/>
-      <c r="I234" s="109"/>
-      <c r="J234" s="110"/>
+      <c r="F234" s="83"/>
+      <c r="G234" s="120"/>
+      <c r="H234" s="121"/>
+      <c r="I234" s="121"/>
+      <c r="J234" s="122"/>
       <c r="K234" s="8"/>
       <c r="L234" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M234" s="1"/>
-      <c r="N234" s="88"/>
-      <c r="O234" s="122"/>
-      <c r="P234" s="123"/>
-      <c r="Q234" s="123"/>
-      <c r="R234" s="118"/>
+      <c r="N234" s="83"/>
+      <c r="O234" s="108"/>
+      <c r="P234" s="109"/>
+      <c r="Q234" s="109"/>
+      <c r="R234" s="110"/>
     </row>
     <row r="235" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="36" t="s">
@@ -9020,21 +10121,21 @@
         <v>11</v>
       </c>
       <c r="E235" s="1"/>
-      <c r="F235" s="88"/>
-      <c r="G235" s="108"/>
-      <c r="H235" s="109"/>
-      <c r="I235" s="109"/>
-      <c r="J235" s="110"/>
+      <c r="F235" s="83"/>
+      <c r="G235" s="120"/>
+      <c r="H235" s="121"/>
+      <c r="I235" s="121"/>
+      <c r="J235" s="122"/>
       <c r="K235" s="8"/>
       <c r="L235" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M235" s="1"/>
-      <c r="N235" s="88"/>
-      <c r="O235" s="122"/>
-      <c r="P235" s="123"/>
-      <c r="Q235" s="123"/>
-      <c r="R235" s="118"/>
+      <c r="N235" s="83"/>
+      <c r="O235" s="108"/>
+      <c r="P235" s="109"/>
+      <c r="Q235" s="109"/>
+      <c r="R235" s="110"/>
     </row>
     <row r="236" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B236" s="36" t="s">
@@ -9047,21 +10148,21 @@
         <v>11</v>
       </c>
       <c r="E236" s="1"/>
-      <c r="F236" s="88"/>
-      <c r="G236" s="108"/>
-      <c r="H236" s="109"/>
-      <c r="I236" s="109"/>
-      <c r="J236" s="110"/>
+      <c r="F236" s="83"/>
+      <c r="G236" s="120"/>
+      <c r="H236" s="121"/>
+      <c r="I236" s="121"/>
+      <c r="J236" s="122"/>
       <c r="K236" s="8"/>
       <c r="L236" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M236" s="1"/>
-      <c r="N236" s="88"/>
-      <c r="O236" s="122"/>
-      <c r="P236" s="123"/>
-      <c r="Q236" s="123"/>
-      <c r="R236" s="118"/>
+      <c r="N236" s="83"/>
+      <c r="O236" s="108"/>
+      <c r="P236" s="109"/>
+      <c r="Q236" s="109"/>
+      <c r="R236" s="110"/>
     </row>
     <row r="237" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B237" s="37" t="s">
@@ -9074,93 +10175,93 @@
         <v>11</v>
       </c>
       <c r="E237" s="14"/>
-      <c r="F237" s="89"/>
-      <c r="G237" s="111"/>
-      <c r="H237" s="112"/>
-      <c r="I237" s="112"/>
-      <c r="J237" s="113"/>
+      <c r="F237" s="84"/>
+      <c r="G237" s="123"/>
+      <c r="H237" s="124"/>
+      <c r="I237" s="124"/>
+      <c r="J237" s="125"/>
       <c r="K237" s="13"/>
       <c r="L237" s="14" t="s">
         <v>11</v>
       </c>
       <c r="M237" s="14"/>
-      <c r="N237" s="89"/>
-      <c r="O237" s="124"/>
-      <c r="P237" s="125"/>
-      <c r="Q237" s="125"/>
-      <c r="R237" s="126"/>
+      <c r="N237" s="84"/>
+      <c r="O237" s="111"/>
+      <c r="P237" s="112"/>
+      <c r="Q237" s="112"/>
+      <c r="R237" s="113"/>
     </row>
     <row r="241" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="128" t="s">
+      <c r="B241" s="114" t="s">
         <v>83</v>
       </c>
-      <c r="C241" s="72"/>
-      <c r="D241" s="72"/>
-      <c r="E241" s="72"/>
-      <c r="F241" s="72"/>
-      <c r="G241" s="72"/>
-      <c r="H241" s="72"/>
-      <c r="I241" s="72"/>
-      <c r="J241" s="72"/>
-      <c r="K241" s="72"/>
-      <c r="L241" s="72"/>
-      <c r="M241" s="72"/>
-      <c r="N241" s="72"/>
-      <c r="O241" s="72"/>
-      <c r="P241" s="72"/>
-      <c r="Q241" s="72"/>
-      <c r="R241" s="73"/>
+      <c r="C241" s="88"/>
+      <c r="D241" s="88"/>
+      <c r="E241" s="88"/>
+      <c r="F241" s="88"/>
+      <c r="G241" s="88"/>
+      <c r="H241" s="88"/>
+      <c r="I241" s="88"/>
+      <c r="J241" s="88"/>
+      <c r="K241" s="88"/>
+      <c r="L241" s="88"/>
+      <c r="M241" s="88"/>
+      <c r="N241" s="88"/>
+      <c r="O241" s="88"/>
+      <c r="P241" s="88"/>
+      <c r="Q241" s="88"/>
+      <c r="R241" s="89"/>
     </row>
     <row r="242" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B242" s="74"/>
-      <c r="C242" s="75"/>
-      <c r="D242" s="75"/>
-      <c r="E242" s="75"/>
-      <c r="F242" s="75"/>
-      <c r="G242" s="75"/>
-      <c r="H242" s="75"/>
-      <c r="I242" s="75"/>
-      <c r="J242" s="75"/>
-      <c r="K242" s="75"/>
-      <c r="L242" s="75"/>
-      <c r="M242" s="75"/>
-      <c r="N242" s="75"/>
-      <c r="O242" s="75"/>
-      <c r="P242" s="75"/>
-      <c r="Q242" s="75"/>
-      <c r="R242" s="76"/>
+      <c r="B242" s="90"/>
+      <c r="C242" s="91"/>
+      <c r="D242" s="91"/>
+      <c r="E242" s="91"/>
+      <c r="F242" s="91"/>
+      <c r="G242" s="91"/>
+      <c r="H242" s="91"/>
+      <c r="I242" s="91"/>
+      <c r="J242" s="91"/>
+      <c r="K242" s="91"/>
+      <c r="L242" s="91"/>
+      <c r="M242" s="91"/>
+      <c r="N242" s="91"/>
+      <c r="O242" s="91"/>
+      <c r="P242" s="91"/>
+      <c r="Q242" s="91"/>
+      <c r="R242" s="92"/>
     </row>
     <row r="243" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B243" s="136" t="s">
+      <c r="B243" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C243" s="77" t="s">
+      <c r="C243" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D243" s="82"/>
-      <c r="E243" s="82"/>
-      <c r="F243" s="83"/>
-      <c r="G243" s="77" t="s">
+      <c r="D243" s="94"/>
+      <c r="E243" s="94"/>
+      <c r="F243" s="95"/>
+      <c r="G243" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H243" s="82"/>
-      <c r="I243" s="82"/>
-      <c r="J243" s="83"/>
-      <c r="K243" s="77" t="s">
+      <c r="H243" s="94"/>
+      <c r="I243" s="94"/>
+      <c r="J243" s="95"/>
+      <c r="K243" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="L243" s="82"/>
-      <c r="M243" s="82"/>
-      <c r="N243" s="83"/>
-      <c r="O243" s="77" t="s">
+      <c r="L243" s="94"/>
+      <c r="M243" s="94"/>
+      <c r="N243" s="95"/>
+      <c r="O243" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="P243" s="82"/>
-      <c r="Q243" s="82"/>
-      <c r="R243" s="83"/>
+      <c r="P243" s="94"/>
+      <c r="Q243" s="94"/>
+      <c r="R243" s="95"/>
     </row>
     <row r="244" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B244" s="137"/>
+      <c r="B244" s="116"/>
       <c r="C244" s="25" t="s">
         <v>6</v>
       </c>
@@ -9219,25 +10320,25 @@
         <v>11</v>
       </c>
       <c r="E245" s="28"/>
-      <c r="F245" s="120"/>
-      <c r="G245" s="105" t="s">
+      <c r="F245" s="106"/>
+      <c r="G245" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H245" s="106"/>
-      <c r="I245" s="106"/>
-      <c r="J245" s="107"/>
-      <c r="K245" s="106" t="s">
+      <c r="H245" s="118"/>
+      <c r="I245" s="118"/>
+      <c r="J245" s="119"/>
+      <c r="K245" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="L245" s="106"/>
-      <c r="M245" s="106"/>
-      <c r="N245" s="106"/>
-      <c r="O245" s="119" t="s">
+      <c r="L245" s="118"/>
+      <c r="M245" s="118"/>
+      <c r="N245" s="118"/>
+      <c r="O245" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="P245" s="120"/>
-      <c r="Q245" s="120"/>
-      <c r="R245" s="121"/>
+      <c r="P245" s="106"/>
+      <c r="Q245" s="106"/>
+      <c r="R245" s="107"/>
     </row>
     <row r="246" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B246" s="36" t="s">
@@ -9250,19 +10351,19 @@
         <v>11</v>
       </c>
       <c r="E246" s="1"/>
-      <c r="F246" s="123"/>
-      <c r="G246" s="108"/>
-      <c r="H246" s="109"/>
-      <c r="I246" s="109"/>
-      <c r="J246" s="110"/>
-      <c r="K246" s="109"/>
-      <c r="L246" s="109"/>
-      <c r="M246" s="109"/>
-      <c r="N246" s="109"/>
-      <c r="O246" s="122"/>
-      <c r="P246" s="123"/>
-      <c r="Q246" s="123"/>
-      <c r="R246" s="118"/>
+      <c r="F246" s="109"/>
+      <c r="G246" s="120"/>
+      <c r="H246" s="121"/>
+      <c r="I246" s="121"/>
+      <c r="J246" s="122"/>
+      <c r="K246" s="121"/>
+      <c r="L246" s="121"/>
+      <c r="M246" s="121"/>
+      <c r="N246" s="121"/>
+      <c r="O246" s="108"/>
+      <c r="P246" s="109"/>
+      <c r="Q246" s="109"/>
+      <c r="R246" s="110"/>
     </row>
     <row r="247" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B247" s="36" t="s">
@@ -9275,19 +10376,19 @@
         <v>11</v>
       </c>
       <c r="E247" s="1"/>
-      <c r="F247" s="123"/>
-      <c r="G247" s="108"/>
-      <c r="H247" s="109"/>
-      <c r="I247" s="109"/>
-      <c r="J247" s="110"/>
-      <c r="K247" s="109"/>
-      <c r="L247" s="109"/>
-      <c r="M247" s="109"/>
-      <c r="N247" s="109"/>
-      <c r="O247" s="122"/>
-      <c r="P247" s="123"/>
-      <c r="Q247" s="123"/>
-      <c r="R247" s="118"/>
+      <c r="F247" s="109"/>
+      <c r="G247" s="120"/>
+      <c r="H247" s="121"/>
+      <c r="I247" s="121"/>
+      <c r="J247" s="122"/>
+      <c r="K247" s="121"/>
+      <c r="L247" s="121"/>
+      <c r="M247" s="121"/>
+      <c r="N247" s="121"/>
+      <c r="O247" s="108"/>
+      <c r="P247" s="109"/>
+      <c r="Q247" s="109"/>
+      <c r="R247" s="110"/>
     </row>
     <row r="248" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B248" s="36" t="s">
@@ -9300,19 +10401,19 @@
         <v>11</v>
       </c>
       <c r="E248" s="1"/>
-      <c r="F248" s="123"/>
-      <c r="G248" s="108"/>
-      <c r="H248" s="109"/>
-      <c r="I248" s="109"/>
-      <c r="J248" s="110"/>
-      <c r="K248" s="109"/>
-      <c r="L248" s="109"/>
-      <c r="M248" s="109"/>
-      <c r="N248" s="109"/>
-      <c r="O248" s="122"/>
-      <c r="P248" s="123"/>
-      <c r="Q248" s="123"/>
-      <c r="R248" s="118"/>
+      <c r="F248" s="109"/>
+      <c r="G248" s="120"/>
+      <c r="H248" s="121"/>
+      <c r="I248" s="121"/>
+      <c r="J248" s="122"/>
+      <c r="K248" s="121"/>
+      <c r="L248" s="121"/>
+      <c r="M248" s="121"/>
+      <c r="N248" s="121"/>
+      <c r="O248" s="108"/>
+      <c r="P248" s="109"/>
+      <c r="Q248" s="109"/>
+      <c r="R248" s="110"/>
     </row>
     <row r="249" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B249" s="36" t="s">
@@ -9327,19 +10428,19 @@
       <c r="E249" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F249" s="123"/>
-      <c r="G249" s="108"/>
-      <c r="H249" s="109"/>
-      <c r="I249" s="109"/>
-      <c r="J249" s="110"/>
-      <c r="K249" s="109"/>
-      <c r="L249" s="109"/>
-      <c r="M249" s="109"/>
-      <c r="N249" s="109"/>
-      <c r="O249" s="122"/>
-      <c r="P249" s="123"/>
-      <c r="Q249" s="123"/>
-      <c r="R249" s="118"/>
+      <c r="F249" s="109"/>
+      <c r="G249" s="120"/>
+      <c r="H249" s="121"/>
+      <c r="I249" s="121"/>
+      <c r="J249" s="122"/>
+      <c r="K249" s="121"/>
+      <c r="L249" s="121"/>
+      <c r="M249" s="121"/>
+      <c r="N249" s="121"/>
+      <c r="O249" s="108"/>
+      <c r="P249" s="109"/>
+      <c r="Q249" s="109"/>
+      <c r="R249" s="110"/>
     </row>
     <row r="250" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B250" s="36" t="s">
@@ -9352,19 +10453,19 @@
         <v>11</v>
       </c>
       <c r="E250" s="1"/>
-      <c r="F250" s="123"/>
-      <c r="G250" s="108"/>
-      <c r="H250" s="109"/>
-      <c r="I250" s="109"/>
-      <c r="J250" s="110"/>
-      <c r="K250" s="109"/>
-      <c r="L250" s="109"/>
-      <c r="M250" s="109"/>
-      <c r="N250" s="109"/>
-      <c r="O250" s="122"/>
-      <c r="P250" s="123"/>
-      <c r="Q250" s="123"/>
-      <c r="R250" s="118"/>
+      <c r="F250" s="109"/>
+      <c r="G250" s="120"/>
+      <c r="H250" s="121"/>
+      <c r="I250" s="121"/>
+      <c r="J250" s="122"/>
+      <c r="K250" s="121"/>
+      <c r="L250" s="121"/>
+      <c r="M250" s="121"/>
+      <c r="N250" s="121"/>
+      <c r="O250" s="108"/>
+      <c r="P250" s="109"/>
+      <c r="Q250" s="109"/>
+      <c r="R250" s="110"/>
     </row>
     <row r="251" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B251" s="37" t="s">
@@ -9377,35 +10478,175 @@
         <v>11</v>
       </c>
       <c r="E251" s="14"/>
-      <c r="F251" s="125"/>
-      <c r="G251" s="111"/>
-      <c r="H251" s="112"/>
-      <c r="I251" s="112"/>
-      <c r="J251" s="113"/>
-      <c r="K251" s="112"/>
-      <c r="L251" s="112"/>
-      <c r="M251" s="112"/>
-      <c r="N251" s="112"/>
-      <c r="O251" s="124"/>
-      <c r="P251" s="125"/>
-      <c r="Q251" s="125"/>
-      <c r="R251" s="126"/>
+      <c r="F251" s="112"/>
+      <c r="G251" s="123"/>
+      <c r="H251" s="124"/>
+      <c r="I251" s="124"/>
+      <c r="J251" s="125"/>
+      <c r="K251" s="124"/>
+      <c r="L251" s="124"/>
+      <c r="M251" s="124"/>
+      <c r="N251" s="124"/>
+      <c r="O251" s="111"/>
+      <c r="P251" s="112"/>
+      <c r="Q251" s="112"/>
+      <c r="R251" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="190">
-    <mergeCell ref="K35:N39"/>
-    <mergeCell ref="R35:R39"/>
-    <mergeCell ref="B31:R32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B42:R43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="F167:F175"/>
+    <mergeCell ref="G167:J175"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="K23:N27"/>
+    <mergeCell ref="O23:R27"/>
+    <mergeCell ref="F142:F146"/>
+    <mergeCell ref="J142:J146"/>
+    <mergeCell ref="K142:N146"/>
+    <mergeCell ref="O142:R146"/>
+    <mergeCell ref="N82:N88"/>
+    <mergeCell ref="O82:R88"/>
+    <mergeCell ref="G140:J140"/>
+    <mergeCell ref="K140:N140"/>
+    <mergeCell ref="O140:R140"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="O71:R73"/>
+    <mergeCell ref="N71:N73"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="G71:J73"/>
+    <mergeCell ref="B78:R79"/>
+    <mergeCell ref="B125:R126"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="B149:R150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:F151"/>
+    <mergeCell ref="G151:J151"/>
+    <mergeCell ref="K151:N151"/>
+    <mergeCell ref="O151:R151"/>
+    <mergeCell ref="B163:R164"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="C165:F165"/>
+    <mergeCell ref="G165:J165"/>
+    <mergeCell ref="K165:N165"/>
+    <mergeCell ref="O165:R165"/>
+    <mergeCell ref="F153:F157"/>
+    <mergeCell ref="G153:J157"/>
+    <mergeCell ref="K153:N157"/>
+    <mergeCell ref="O153:R157"/>
+    <mergeCell ref="C182:F182"/>
+    <mergeCell ref="G182:J182"/>
+    <mergeCell ref="K182:N182"/>
+    <mergeCell ref="O182:R182"/>
+    <mergeCell ref="F184:F186"/>
+    <mergeCell ref="G184:J186"/>
+    <mergeCell ref="O184:R186"/>
+    <mergeCell ref="K184:N186"/>
+    <mergeCell ref="F218:F224"/>
+    <mergeCell ref="G218:J224"/>
+    <mergeCell ref="N218:N224"/>
+    <mergeCell ref="O218:R224"/>
+    <mergeCell ref="G216:J216"/>
+    <mergeCell ref="K216:N216"/>
+    <mergeCell ref="O216:R216"/>
+    <mergeCell ref="C192:F192"/>
+    <mergeCell ref="G192:J192"/>
+    <mergeCell ref="K192:N192"/>
+    <mergeCell ref="O192:R192"/>
+    <mergeCell ref="B190:R191"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="O119:R121"/>
+    <mergeCell ref="G119:J121"/>
+    <mergeCell ref="K119:N121"/>
+    <mergeCell ref="K95:N95"/>
+    <mergeCell ref="F82:F88"/>
+    <mergeCell ref="G82:J88"/>
+    <mergeCell ref="B67:R68"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="O69:R69"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="G95:J95"/>
+    <mergeCell ref="F119:F121"/>
+    <mergeCell ref="F108:F111"/>
+    <mergeCell ref="G108:J111"/>
+    <mergeCell ref="N108:N111"/>
+    <mergeCell ref="B93:R94"/>
+    <mergeCell ref="F46:F63"/>
+    <mergeCell ref="N46:N63"/>
+    <mergeCell ref="R46:R63"/>
+    <mergeCell ref="O80:R80"/>
+    <mergeCell ref="B8:R9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="B19:R20"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:J14"/>
+    <mergeCell ref="K12:N14"/>
+    <mergeCell ref="O12:R14"/>
+    <mergeCell ref="O44:R44"/>
+    <mergeCell ref="G46:J63"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="G35:J39"/>
+    <mergeCell ref="N129:N135"/>
+    <mergeCell ref="R129:R135"/>
+    <mergeCell ref="F129:F135"/>
+    <mergeCell ref="O95:R95"/>
+    <mergeCell ref="F97:F99"/>
+    <mergeCell ref="G97:J99"/>
+    <mergeCell ref="N97:N99"/>
+    <mergeCell ref="O97:R99"/>
+    <mergeCell ref="B104:R105"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:F106"/>
+    <mergeCell ref="G106:J106"/>
+    <mergeCell ref="K106:N106"/>
+    <mergeCell ref="O106:R106"/>
+    <mergeCell ref="K117:N117"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B115:R116"/>
+    <mergeCell ref="C117:F117"/>
+    <mergeCell ref="O117:R117"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:F127"/>
+    <mergeCell ref="G127:J127"/>
+    <mergeCell ref="K127:N127"/>
+    <mergeCell ref="O127:R127"/>
+    <mergeCell ref="B138:R139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:F140"/>
+    <mergeCell ref="O194:R200"/>
+    <mergeCell ref="B243:B244"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C243:F243"/>
+    <mergeCell ref="G243:J243"/>
+    <mergeCell ref="K243:N243"/>
+    <mergeCell ref="O243:R243"/>
+    <mergeCell ref="B204:R205"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="C206:F206"/>
+    <mergeCell ref="G206:J206"/>
+    <mergeCell ref="K206:N206"/>
+    <mergeCell ref="O206:R206"/>
+    <mergeCell ref="O208:R210"/>
+    <mergeCell ref="K208:N210"/>
+    <mergeCell ref="B214:R215"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="C216:F216"/>
+    <mergeCell ref="G129:J135"/>
+    <mergeCell ref="O108:R111"/>
+    <mergeCell ref="G117:J117"/>
     <mergeCell ref="N167:N175"/>
     <mergeCell ref="O167:R175"/>
     <mergeCell ref="G245:J251"/>
@@ -9430,166 +10671,26 @@
     <mergeCell ref="G208:J210"/>
     <mergeCell ref="B180:R181"/>
     <mergeCell ref="B182:B183"/>
-    <mergeCell ref="B138:R139"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:F140"/>
-    <mergeCell ref="O194:R200"/>
-    <mergeCell ref="B243:B244"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C243:F243"/>
-    <mergeCell ref="G243:J243"/>
-    <mergeCell ref="K243:N243"/>
-    <mergeCell ref="O243:R243"/>
-    <mergeCell ref="B204:R205"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="C206:F206"/>
-    <mergeCell ref="G206:J206"/>
-    <mergeCell ref="K206:N206"/>
-    <mergeCell ref="O206:R206"/>
-    <mergeCell ref="O208:R210"/>
-    <mergeCell ref="K208:N210"/>
-    <mergeCell ref="B214:R215"/>
-    <mergeCell ref="B216:B217"/>
-    <mergeCell ref="C216:F216"/>
-    <mergeCell ref="G129:J135"/>
-    <mergeCell ref="O108:R111"/>
-    <mergeCell ref="G117:J117"/>
-    <mergeCell ref="N129:N135"/>
-    <mergeCell ref="R129:R135"/>
-    <mergeCell ref="F129:F135"/>
-    <mergeCell ref="O95:R95"/>
-    <mergeCell ref="F97:F99"/>
-    <mergeCell ref="G97:J99"/>
-    <mergeCell ref="N97:N99"/>
-    <mergeCell ref="O97:R99"/>
-    <mergeCell ref="B104:R105"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:F106"/>
-    <mergeCell ref="G106:J106"/>
-    <mergeCell ref="K106:N106"/>
-    <mergeCell ref="O106:R106"/>
-    <mergeCell ref="K117:N117"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B115:R116"/>
-    <mergeCell ref="C117:F117"/>
-    <mergeCell ref="O117:R117"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:F127"/>
-    <mergeCell ref="G127:J127"/>
-    <mergeCell ref="K127:N127"/>
-    <mergeCell ref="O127:R127"/>
-    <mergeCell ref="F46:F63"/>
-    <mergeCell ref="N46:N63"/>
-    <mergeCell ref="R46:R63"/>
-    <mergeCell ref="O80:R80"/>
-    <mergeCell ref="B8:R9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="B19:R20"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:J14"/>
-    <mergeCell ref="K12:N14"/>
-    <mergeCell ref="O12:R14"/>
-    <mergeCell ref="O44:R44"/>
-    <mergeCell ref="G46:J63"/>
-    <mergeCell ref="F35:F39"/>
-    <mergeCell ref="G35:J39"/>
-    <mergeCell ref="O119:R121"/>
-    <mergeCell ref="G119:J121"/>
-    <mergeCell ref="K119:N121"/>
-    <mergeCell ref="K95:N95"/>
-    <mergeCell ref="F82:F88"/>
-    <mergeCell ref="G82:J88"/>
-    <mergeCell ref="B67:R68"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="O69:R69"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="G95:J95"/>
-    <mergeCell ref="F119:F121"/>
-    <mergeCell ref="F108:F111"/>
-    <mergeCell ref="G108:J111"/>
-    <mergeCell ref="N108:N111"/>
-    <mergeCell ref="B93:R94"/>
-    <mergeCell ref="C182:F182"/>
-    <mergeCell ref="G182:J182"/>
-    <mergeCell ref="K182:N182"/>
-    <mergeCell ref="O182:R182"/>
-    <mergeCell ref="F184:F186"/>
-    <mergeCell ref="G184:J186"/>
-    <mergeCell ref="O184:R186"/>
-    <mergeCell ref="K184:N186"/>
-    <mergeCell ref="F218:F224"/>
-    <mergeCell ref="G218:J224"/>
-    <mergeCell ref="N218:N224"/>
-    <mergeCell ref="O218:R224"/>
-    <mergeCell ref="G216:J216"/>
-    <mergeCell ref="K216:N216"/>
-    <mergeCell ref="O216:R216"/>
-    <mergeCell ref="C192:F192"/>
-    <mergeCell ref="G192:J192"/>
-    <mergeCell ref="K192:N192"/>
-    <mergeCell ref="O192:R192"/>
-    <mergeCell ref="B190:R191"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:F151"/>
-    <mergeCell ref="G151:J151"/>
-    <mergeCell ref="K151:N151"/>
-    <mergeCell ref="O151:R151"/>
-    <mergeCell ref="B163:R164"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="C165:F165"/>
-    <mergeCell ref="G165:J165"/>
-    <mergeCell ref="K165:N165"/>
-    <mergeCell ref="O165:R165"/>
-    <mergeCell ref="F153:F157"/>
-    <mergeCell ref="G153:J157"/>
-    <mergeCell ref="K153:N157"/>
-    <mergeCell ref="O153:R157"/>
-    <mergeCell ref="F167:F175"/>
-    <mergeCell ref="G167:J175"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="K23:N27"/>
-    <mergeCell ref="O23:R27"/>
-    <mergeCell ref="F142:F146"/>
-    <mergeCell ref="J142:J146"/>
-    <mergeCell ref="K142:N146"/>
-    <mergeCell ref="O142:R146"/>
-    <mergeCell ref="N82:N88"/>
-    <mergeCell ref="O82:R88"/>
-    <mergeCell ref="G140:J140"/>
-    <mergeCell ref="K140:N140"/>
-    <mergeCell ref="O140:R140"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="O71:R73"/>
-    <mergeCell ref="N71:N73"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="G71:J73"/>
-    <mergeCell ref="B78:R79"/>
-    <mergeCell ref="B125:R126"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="B149:R150"/>
+    <mergeCell ref="K35:N39"/>
+    <mergeCell ref="R35:R39"/>
+    <mergeCell ref="B31:R32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B42:R43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:N44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4327FE06-9A74-4A74-AD71-33ECC696A0AF}">
   <dimension ref="B2:B5"/>
   <sheetViews>
